--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="user_favorite_lists" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="clean_houselists" sheetId="1" r:id="rId2"/>
+    <sheet name="clean_lists" sheetId="4" r:id="rId3"/>
+    <sheet name="clean_info" sheetId="3" r:id="rId4"/>
+    <sheet name="clean_doinfo" sheetId="5" r:id="rId5"/>
+    <sheet name="clean_evaluate" sheetId="6" r:id="rId6"/>
+    <sheet name="clean_doevaluate" sheetId="7" r:id="rId7"/>
+    <sheet name="clean_change" sheetId="8" r:id="rId8"/>
+    <sheet name="clean_dochange" sheetId="9" r:id="rId9"/>
+    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId10"/>
+    <sheet name="user_favorite_lists" sheetId="11" r:id="rId11"/>
+    <sheet name="user_common_agreement" sheetId="12" r:id="rId12"/>
+    <sheet name="user_account_info" sheetId="13" r:id="rId13"/>
+    <sheet name="user_repair_detail" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,8 +74,248 @@
     <t>success</t>
   </si>
   <si>
-    <t>用户相关-收藏列表
--ok</t>
+    <t>cleaning_house_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/house_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>test_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076667",
+"password": "12345678"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"1821107666",
+"password": "12345678"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-记录列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"page":1,
+"status":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":642
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/doInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_doinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-操作详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/evaluate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_evaluate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-评价加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":1636124
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_doevaluate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/doEvaluate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-评价提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":642,
+"repair_user_id":105,
+"stars":10,
+"remark":"12345"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-改约加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning_dochange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁-改约提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cleaning/doChange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":642,
+"visit_date":"2018-01-26",
+"time_section":"9:00-21:00"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intelligence/houseInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence_houseinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智居接口-获取房间电表/门锁信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":6420
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_favorite_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-收藏列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -70,16 +323,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v1.5_user_favorite_lists_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"source": 4,
-"version": "1.1.0",
+"source": 1,
+"version": "1.5.0",
 "access_token": "",
 "page":1,
 "rental_type":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"page":1,
+"rental_type":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"page":1,
+"rental_type":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_common_agreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-注册协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/agreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户中心接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_repair_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-维修申请-详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"apply_id":12
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,6 +529,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +867,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1006</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1005</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,8 +1052,8 @@
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
@@ -560,12 +1089,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -574,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -594,4 +1123,1150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="user_common_agreement" sheetId="12" r:id="rId12"/>
     <sheet name="user_account_info" sheetId="13" r:id="rId13"/>
     <sheet name="user_repair_detail" sheetId="14" r:id="rId14"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,6 +403,26 @@
 "version": "1.5.0",
 "access_token": "",
 "apply_id":12
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet_bank_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-银行卡列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bank/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -870,7 +891,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,7 +1151,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1487,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1587,6 +1608,114 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -22,13 +22,16 @@
     <sheet name="user_account_info" sheetId="13" r:id="rId13"/>
     <sheet name="user_repair_detail" sheetId="14" r:id="rId14"/>
     <sheet name="wallet_bank_lists" sheetId="15" r:id="rId15"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId16"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId17"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -425,6 +428,168 @@
 "access_token": ""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet_bank_bind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-绑定银行卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bank/bind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet_bank_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-绑卡校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bank/check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet_bank_unbild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包-解绑银行卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bank/unbind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"trac_no":"",
+"sms_code":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222222"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名不正确！</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天一",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222222"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天一",
+"user_idno":"360101198803170013",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222222"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码不正确！</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天一",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127513",
+"card_type":1,
+"mobile":"13222222222"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡号有误！</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天一",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222223"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号与短信口令手机号不匹配！</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天一",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":2,
+"mobile":"13222222222",
+"expire_date":"2020-01-01",
+"safe_code":"123"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡信息有误！</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_id":"288"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_id":"28"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡不存在</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1716,6 +1881,470 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="14.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -25,13 +25,19 @@
     <sheet name="wallet_bank_bind" sheetId="16" r:id="rId16"/>
     <sheet name="wallet_bank_check" sheetId="17" r:id="rId17"/>
     <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId18"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId19"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId20"/>
+    <sheet name="home_map" sheetId="21" r:id="rId21"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId22"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId23"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="125">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -590,6 +596,152 @@
   </si>
   <si>
     <t>银行卡不存在</t>
+  </si>
+  <si>
+    <t>home_tradingAera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tradingArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-区域商圈及热门商圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/communityList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_communityList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-品牌社区列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"page":1,
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-地图搜索接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_houselist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/houseLists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间列表(接口测试专用-集中式-天通苑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/communityInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_communityinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-社区详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"community_id":1017634
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/searchInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_searchinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-搜索加载接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"page":1,
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"feature_id":[1],
+"direction":[1],
+"room_amount":[1],
+"tenancy_type ":[0],
+"city_id ": 2,
+"type_id":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"type_id":0,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1781,7 +1933,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1888,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2120,7 +2272,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2227,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2345,6 +2497,114 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2431,6 +2691,543 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="26.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="19.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="24" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="26.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="home_houselist" sheetId="22" r:id="rId22"/>
     <sheet name="home_communityinfo" sheetId="23" r:id="rId23"/>
     <sheet name="home_searchinfo" sheetId="24" r:id="rId24"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -741,6 +742,28 @@
 "end_rent":1500,
 "city_id ": 2
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/myDisReserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_mydisreserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-预定列表接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2913,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3129,7 +3152,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3228,6 +3251,114 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="131">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -753,17 +753,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>集中分散首页-预定列表接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token":"",
 "page":1,
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
 "status":0
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-预定列表接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1869,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,7 +1976,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3258,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3309,7 +3329,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3321,7 +3341,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3333,27 +3353,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -32,13 +32,19 @@
     <sheet name="home_communityinfo" sheetId="23" r:id="rId23"/>
     <sheet name="home_searchinfo" sheetId="24" r:id="rId24"/>
     <sheet name="booking_disreserve" sheetId="25" r:id="rId25"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId26"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId27"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId28"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId29"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId30"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="157">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,15 +158,6 @@
 "source": 2,
 "version": "1.5.0",
 "mobile":"1821107666",
-"password": "12345678"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
 "password": "12345678"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -783,6 +780,220 @@
 "access_token":"",
 "page":1,
 "status":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-分散式预约房型详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"from_type":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"from_type":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/myDisBooking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_mydisbooking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-我的预约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":3
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":4
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-分散集中预约取消/删除接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"look_time":"",
+"mobile":"18211076666",
+"name":"刘小良",
+"product_id":161,
+"community_id":11
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"type":"cancel",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"type":"delete",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"look_time":"",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-新预约提交-分散式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-新预约提交-集中式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"type":"cancel",
+"mobile":"18211076666",
+"product_id":161,
+"community_id":11
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"type":"delete",
+"mobile":"18211076666",
+"product_id":161,
+"community_id":11,
+"id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1251,7 +1462,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1472,10 +1683,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1484,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1558,10 +1769,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1570,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1587,10 +1798,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1599,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1616,10 +1827,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1628,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1702,10 +1913,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1714,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1809,10 +2020,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1821,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1916,10 +2127,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1928,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2023,10 +2234,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2035,10 +2246,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2083,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2131,10 +2342,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2143,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2160,10 +2371,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -2172,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2184,15 +2395,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -2201,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2213,15 +2424,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -2230,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2242,15 +2453,15 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -2259,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2271,15 +2482,15 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -2288,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2300,7 +2511,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2362,10 +2573,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2374,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2470,10 +2681,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2482,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2499,10 +2710,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -2511,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2523,7 +2734,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2595,10 +2806,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2607,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2789,10 +3000,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2801,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2896,10 +3107,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2908,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3004,10 +3215,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3016,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3112,10 +3323,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3124,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3172,7 +3383,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3219,10 +3430,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3231,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3279,7 +3490,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3326,10 +3537,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3338,10 +3549,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3355,10 +3566,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3367,10 +3578,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3384,10 +3595,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -3396,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3415,6 +3626,580 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3470,10 +4255,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3482,10 +4267,95 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3494,6 +4364,134 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3555,10 +4553,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3567,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3640,10 +4638,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3652,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3725,10 +4723,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3737,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3810,10 +4808,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3822,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3895,10 +4893,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3907,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3980,10 +4978,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3992,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2759,7 +2759,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3759,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4392,7 +4392,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="27" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="29" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,13 +38,15 @@
     <sheet name="booking_cancel_01" sheetId="29" r:id="rId29"/>
     <sheet name="booking_submit_02" sheetId="30" r:id="rId30"/>
     <sheet name="booking_cancel_02" sheetId="31" r:id="rId31"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId32"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="170">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -995,6 +997,85 @@
 "community_id":11,
 "id":1
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-我的租约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":5
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":5,
+"signing_status":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-合同详情接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/signingInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_signingInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"signing_id":3561
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"signing_id":35611
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同不存在</t>
+  </si>
+  <si>
+    <t>success</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4391,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4494,6 +4575,275 @@
       <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5001</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="29" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -21,32 +21,38 @@
     <sheet name="user_common_agreement" sheetId="12" r:id="rId12"/>
     <sheet name="user_account_info" sheetId="13" r:id="rId13"/>
     <sheet name="user_repair_detail" sheetId="14" r:id="rId14"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId15"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId16"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId17"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId18"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId19"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId20"/>
-    <sheet name="home_map" sheetId="21" r:id="rId21"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId22"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId23"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId24"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId25"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId26"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId27"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId28"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId29"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId30"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId31"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId32"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId33"/>
+    <sheet name="user_getsmscode" sheetId="35" r:id="rId15"/>
+    <sheet name="user_resetpwd" sheetId="36" r:id="rId16"/>
+    <sheet name="user_verifypwd" sheetId="37" r:id="rId17"/>
+    <sheet name="user_esign_auth" sheetId="38" r:id="rId18"/>
+    <sheet name="Sheet6" sheetId="39" r:id="rId19"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId20"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId21"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId22"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId23"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId24"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId25"/>
+    <sheet name="home_map" sheetId="21" r:id="rId26"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId27"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId28"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId29"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId30"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId31"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId32"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId33"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId34"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId35"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId36"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId37"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId38"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId39"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="197">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1077,6 +1083,172 @@
   <si>
     <t>success</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/subBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-合同账单详情接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_subbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"bill_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"bill_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/getSmsCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_getsmscode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/resetPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_resetPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":3,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/verifyPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_verifypwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户企业实名 认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/esign/auth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_esign_auth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"name":"刘一良",
+"card_no":"123456782"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户已通过实名认证</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2333,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2268,7 +2440,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2449,7 @@
     <col min="2" max="2" width="18" style="14" customWidth="1"/>
     <col min="3" max="4" width="9" style="14"/>
     <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
     <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
@@ -2313,24 +2485,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>178</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2367,16 +2682,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,8 +2698,8 @@
     <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="18" style="14" customWidth="1"/>
     <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="14.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
     <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
@@ -2421,24 +2735,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2450,150 +2764,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2602,12 +2811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2615,11 +2824,11 @@
     <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="18" style="14" customWidth="1"/>
     <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
     <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
     <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -2652,33 +2861,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2692,143 +2901,6 @@
       <c r="H3" s="20"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,109 +2909,14 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3034,6 +3011,686 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="14.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3136,7 +3793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3244,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3352,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3459,7 +4116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3559,724 +4216,6 @@
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
       <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4371,6 +4310,724 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4468,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4582,155 +5239,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4776,6 +5289,150 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>165</v>
@@ -4848,6 +5505,132 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="31" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -25,34 +25,39 @@
     <sheet name="user_resetpwd" sheetId="36" r:id="rId16"/>
     <sheet name="user_verifypwd" sheetId="37" r:id="rId17"/>
     <sheet name="user_esign_auth" sheetId="38" r:id="rId18"/>
-    <sheet name="Sheet6" sheetId="39" r:id="rId19"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId20"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId21"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId22"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId23"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId24"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId25"/>
-    <sheet name="home_map" sheetId="21" r:id="rId26"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId27"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId28"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId29"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId30"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId31"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId32"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId33"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId34"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId35"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId36"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId37"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId38"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId39"/>
+    <sheet name="user_bill_lease" sheetId="41" r:id="rId19"/>
+    <sheet name="user_bill_lists" sheetId="40" r:id="rId20"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId21"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId22"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId23"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId24"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId25"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId26"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId27"/>
+    <sheet name="home_map" sheetId="21" r:id="rId28"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId29"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId30"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId31"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId32"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId33"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId34"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId35"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId36"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId37"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId38"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId39"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId40"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId41"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId42"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId43"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId44"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="221">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -410,15 +415,6 @@
   </si>
   <si>
     <t>/repair/details</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"apply_id":12
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1249,6 +1245,140 @@
   </si>
   <si>
     <t>该用户已通过实名认证</t>
+  </si>
+  <si>
+    <t>用户-用户租赁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/lease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_lease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户账单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"apply_id":12
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/doCertificates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account_docertificates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-证件提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"name":"刘昱良",
+"sex":1,
+"card_type_id":1,
+"card_no":"370481198811156472"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-待办事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间产品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间产品详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"product_id":1,
+"from_type":0,
+"access_token ":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1714,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2333,7 +2463,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2395,7 +2525,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2487,10 +2617,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2499,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2516,10 +2646,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2528,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2545,10 +2675,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2557,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2630,22 +2760,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2737,22 +2867,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2766,22 +2896,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2790,7 +2920,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2816,7 +2946,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2863,22 +2993,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2887,7 +3017,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2909,14 +3039,98 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3008,6 +3222,198 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3058,10 +3464,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3070,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3114,7 +3520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3166,10 +3572,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3178,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3195,10 +3601,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3207,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3219,15 +3625,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -3236,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3248,15 +3654,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -3265,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3277,15 +3683,15 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -3294,10 +3700,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3306,15 +3712,15 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -3323,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3335,7 +3741,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3397,10 +3803,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3409,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3453,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3505,10 +3911,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3517,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3534,10 +3940,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3546,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3558,7 +3964,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3578,7 +3984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3630,10 +4036,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3642,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3686,7 +4092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3738,10 +4144,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3750,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3793,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3845,10 +4251,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3857,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3901,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3953,10 +4359,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3965,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4006,220 +4412,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="26.625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4313,7 +4505,221 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="26.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4360,10 +4766,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4372,10 +4778,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4389,10 +4795,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4401,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4418,10 +4824,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -4430,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4452,12 +4858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4504,10 +4910,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4516,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4533,10 +4939,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4545,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4578,7 +4984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4630,10 +5036,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4642,10 +5048,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4659,10 +5065,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4671,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4688,10 +5094,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -4700,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4717,10 +5123,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -4729,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4746,10 +5152,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -4758,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4780,12 +5186,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4832,10 +5238,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4844,10 +5250,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4890,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -4942,10 +5348,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4954,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4971,10 +5377,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4983,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5026,7 +5432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5078,10 +5484,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5090,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5125,7 +5531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5177,10 +5583,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5189,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5206,10 +5612,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5218,10 +5624,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5239,12 +5645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5289,24 +5695,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5318,178 +5724,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>168</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -5502,130 +5746,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5719,6 +5841,626 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5001</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="31" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="225">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1111,10 +1111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户-下发短信验证码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/common/getSmsCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1173,17 +1169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":3,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/common/verifyPwd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1280,15 +1265,6 @@
   </si>
   <si>
     <t>用户-用户账单列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"signing_id":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1377,6 +1353,60 @@
 "product_id":1,
 "from_type":0,
 "access_token ":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":3,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":2,
+"signing_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2525,7 +2555,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2567,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2617,10 +2647,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2629,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2646,10 +2676,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2658,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2675,10 +2705,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2687,18 +2717,47 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2713,7 +2772,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2760,22 +2819,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2867,22 +2926,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2896,22 +2955,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2920,7 +2979,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2993,22 +3052,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3017,7 +3076,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3042,7 +3101,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3089,10 +3148,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3101,11 +3160,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -3113,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3225,7 +3284,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3270,12 +3329,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3284,31 +3343,49 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3320,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3368,10 +3445,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3380,11 +3457,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -3392,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3417,7 +3494,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3525,7 +3602,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3756,7 +3833,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3864,7 +3941,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4718,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5697,10 +5774,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5709,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5893,10 +5970,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5905,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5922,10 +5999,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5934,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6416,10 +6493,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6428,10 +6505,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6440,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -3397,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3833,7 +3833,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3940,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -3832,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3940,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="226">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,34 +146,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076667",
-"password": "12345678"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>账号不存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"1821107666",
-"password": "12345678"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/cleaning/info</t>
@@ -842,15 +815,6 @@
   </si>
   <si>
     <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token":"",
@@ -1407,6 +1371,56 @@
 "access_token": "",
 "status":2,
 "signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076667",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"1821107666",
+"password": "12345678",
+"type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1872,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1921,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1950,7 +1964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,19 +1981,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1005</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1996,19 +2010,19 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2025,15 +2039,44 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="7">
+        <v>1005</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>1101</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2096,10 +2139,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2108,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2182,10 +2225,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2194,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2211,10 +2254,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -2223,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2240,10 +2283,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -2252,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2326,10 +2369,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2338,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2433,10 +2476,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2445,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2540,10 +2583,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -2552,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2647,10 +2690,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2659,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2676,10 +2719,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2688,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2705,10 +2748,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2717,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2734,10 +2777,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2746,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2819,22 +2862,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2926,22 +2969,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2955,22 +2998,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2979,7 +3022,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3052,22 +3095,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3076,7 +3119,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3148,10 +3191,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3160,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3172,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3331,10 +3374,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3343,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3355,15 +3398,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3372,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3384,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3445,10 +3488,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3457,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3469,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3541,10 +3584,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3553,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3649,10 +3692,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3661,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3678,10 +3721,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3690,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3702,15 +3745,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -3719,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3731,15 +3774,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -3748,10 +3791,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3760,15 +3803,15 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -3777,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3789,15 +3832,15 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -3806,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3818,7 +3861,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3832,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3880,10 +3923,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3892,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3988,10 +4031,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4000,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4017,10 +4060,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4029,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4041,7 +4084,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4113,10 +4156,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4125,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4221,10 +4264,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4233,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4328,10 +4371,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4340,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4436,10 +4479,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4448,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4544,10 +4587,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4556,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4629,10 +4672,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4641,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4736,10 +4779,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4748,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4843,10 +4886,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4855,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4872,10 +4915,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4884,10 +4927,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4901,10 +4944,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -4913,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4987,10 +5030,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4999,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5016,10 +5059,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5028,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5113,10 +5156,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5125,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5142,10 +5185,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5154,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5171,10 +5214,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5183,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5200,10 +5243,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5212,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5229,10 +5272,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -5241,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5315,10 +5358,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5327,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5425,10 +5468,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5437,10 +5480,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5454,10 +5497,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5466,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5561,10 +5604,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5573,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5660,10 +5703,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5672,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5689,10 +5732,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5701,10 +5744,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5774,10 +5817,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5786,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5885,10 +5928,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5897,10 +5940,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5970,10 +6013,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5982,10 +6025,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5999,10 +6042,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6011,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6098,10 +6141,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6110,10 +6153,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6127,10 +6170,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6139,10 +6182,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6156,10 +6199,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6168,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6242,10 +6285,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6254,10 +6297,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6266,15 +6309,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6283,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6295,7 +6338,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6367,10 +6410,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6379,10 +6422,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6391,15 +6434,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6408,10 +6451,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6493,10 +6536,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6505,10 +6548,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6517,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6590,10 +6633,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6602,10 +6645,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6675,10 +6718,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6687,10 +6730,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6760,10 +6803,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6772,10 +6815,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6845,10 +6888,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6857,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6930,10 +6973,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6942,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="230">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -842,17 +842,6 @@
 "access_token":"",
 "page":1,
 "mobile":"18211076666",
-"is_look":3
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"mobile":"18211076666",
 "is_look":4
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -897,19 +886,6 @@
 "version": "1.5.0",
 "access_token":"",
 "type_id":1,
-"type":"cancel",
-"mobile":"18211076666",
-"name":"刘小良",
-"house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":1,
 "type":"delete",
 "mobile":"18211076666",
 "name":"刘小良",
@@ -1083,17 +1059,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户-密码重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1348,17 +1313,6 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
 "status":1,
 "signing_id":1
 }</t>
@@ -1421,6 +1375,82 @@
 "mobile":"1821107666",
 "password": "12345678",
 "type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-我的预约列表(状态3没了)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"type":"cancel",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":3,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"product_id":1,
+"from_type":0,
+"access_token ":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1888,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1981,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2010,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2039,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2068,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2598,7 +2628,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2640,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2690,10 +2720,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2702,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2719,10 +2749,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2731,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2748,10 +2778,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2760,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2777,10 +2807,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2789,18 +2819,76 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2862,22 +2950,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2969,22 +3057,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2998,22 +3086,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3022,7 +3110,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3095,22 +3183,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3119,7 +3207,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3191,10 +3279,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3203,19 +3291,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3374,10 +3462,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3386,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3398,15 +3486,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3415,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3427,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3488,10 +3576,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3500,11 +3588,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -3512,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5108,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5246,7 +5334,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5287,7 +5375,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5358,10 +5446,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5370,10 +5458,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5421,7 +5509,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5468,10 +5556,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5480,10 +5568,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5497,10 +5585,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5509,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5604,10 +5692,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5616,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5703,10 +5791,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5715,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5732,10 +5820,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5744,10 +5832,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5817,10 +5905,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5829,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5965,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6013,10 +6101,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6025,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6042,10 +6130,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6054,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6141,10 +6229,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6153,10 +6241,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6170,10 +6258,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6182,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6199,10 +6287,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6211,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6285,10 +6373,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6297,11 +6385,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -6309,15 +6397,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6326,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6338,7 +6426,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6410,10 +6498,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6422,10 +6510,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6434,15 +6522,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6451,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6536,10 +6624,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6548,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6560,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="229">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1276,17 +1276,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"product_id":1,
-"from_type":0,
-"access_token ":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
@@ -1448,6 +1437,7 @@
 "source": 4,
 "version": "1.5.0",
 "access_token":"",
+"community_id":11,
 "product_id":1,
 "from_type":0,
 "access_token ":""
@@ -1982,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2011,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2040,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2069,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2098,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2723,7 +2713,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2735,7 +2725,7 @@
         <v>168</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2752,7 +2742,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2764,7 +2754,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2781,7 +2771,7 @@
         <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2810,7 +2800,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2822,7 +2812,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2839,7 +2829,7 @@
         <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2851,7 +2841,7 @@
         <v>168</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2868,7 +2858,7 @@
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2880,7 +2870,7 @@
         <v>168</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3477,7 +3467,7 @@
         <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3506,7 +3496,7 @@
         <v>192</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5334,7 +5324,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5399,7 +5389,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5571,7 +5561,7 @@
         <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6054,7 +6044,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6116,7 +6106,7 @@
         <v>207</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6128,7 +6118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -6145,7 +6135,7 @@
         <v>207</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="36" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="34" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -886,19 +886,6 @@
 "version": "1.5.0",
 "access_token":"",
 "type_id":1,
-"type":"delete",
-"mobile":"18211076666",
-"name":"刘小良",
-"house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":1,
 "look_time":"",
 "mobile":"18211076666",
 "name":"刘小良",
@@ -1401,8 +1388,24 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"from_type":0,
+"access_token ":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1412,8 +1415,8 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
+"type_id":2,
+"user_type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1429,18 +1432,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户-下发短信验证码-修改密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 4,
 "version": "1.5.0",
 "access_token":"",
-"community_id":11,
-"product_id":1,
-"from_type":0,
-"access_token ":""
+"type_id":1,
+"type":"delete",
+"id":1315,
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1972,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2001,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2030,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2059,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2088,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2618,7 +2619,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2663,7 +2664,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2710,10 +2711,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2722,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2739,10 +2740,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2751,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2768,10 +2769,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2780,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2797,10 +2798,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2809,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2826,10 +2827,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2838,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2855,10 +2856,10 @@
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2867,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2940,22 +2941,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3047,22 +3048,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3076,22 +3077,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3100,7 +3101,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3173,22 +3174,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3197,7 +3198,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3269,10 +3270,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3281,19 +3282,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3452,10 +3453,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3464,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3476,15 +3477,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3493,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3505,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3566,10 +3567,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3578,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3590,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4917,7 +4918,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5186,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5324,7 +5325,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5389,7 +5390,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5439,7 +5440,7 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5451,7 +5452,7 @@
         <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5561,7 +5562,7 @@
         <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5573,7 +5574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>141</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5685,7 +5686,7 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5733,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5796,7 +5797,7 @@
         <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5825,7 +5826,7 @@
         <v>141</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5895,10 +5896,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5907,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6043,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6091,10 +6092,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6103,10 +6104,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6120,10 +6121,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6132,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6219,10 +6220,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6231,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6248,10 +6249,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6260,10 +6261,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6277,10 +6278,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6289,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6363,10 +6364,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6375,10 +6376,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6387,15 +6388,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6404,10 +6405,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6416,7 +6417,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6488,10 +6489,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6500,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6512,15 +6513,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6529,10 +6530,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6614,10 +6615,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6626,19 +6627,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="34" activeTab="37"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="38" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -676,13 +676,6 @@
   <si>
     <t>{
 "source": 1,
-"version": "1.5.0"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
 "version": "1.5.0",
 "page":1,
 "district_id":274,
@@ -1442,6 +1435,14 @@
 "mobile":"18211076666",
 "name":"刘小良",
 "house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"city_id ":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1973,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2002,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2031,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2060,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2089,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2619,7 +2620,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2711,10 +2712,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2723,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2740,10 +2741,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2752,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2769,10 +2770,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2781,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2798,10 +2799,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2810,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2827,10 +2828,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2839,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2856,10 +2857,10 @@
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2868,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2941,22 +2942,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3048,22 +3049,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3077,22 +3078,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3101,7 +3102,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3174,22 +3175,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3198,7 +3199,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3270,10 +3271,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3282,19 +3283,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3453,10 +3454,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3465,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3477,15 +3478,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3494,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3506,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3568,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3579,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3591,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4465,7 +4466,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4573,7 +4574,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4811,7 +4812,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4873,7 +4874,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4965,10 +4966,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4977,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4994,10 +4995,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5006,10 +5007,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5023,10 +5024,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5035,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5109,10 +5110,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5121,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5138,10 +5139,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5150,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5235,10 +5236,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5247,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5264,10 +5265,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5276,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5293,10 +5294,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5305,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5322,10 +5323,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5334,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5351,10 +5352,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -5363,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5437,10 +5438,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5449,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5547,10 +5548,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5559,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5576,10 +5577,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5588,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5683,10 +5684,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5695,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5734,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5782,10 +5783,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5794,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5811,10 +5812,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5823,10 +5824,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5848,7 +5849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5896,10 +5897,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5908,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6092,10 +6093,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6104,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6121,10 +6122,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6133,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6172,7 +6173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6220,10 +6221,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6232,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6249,10 +6250,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6261,10 +6262,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6278,10 +6279,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6290,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6364,10 +6365,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6376,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6388,15 +6389,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6405,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6417,7 +6418,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6489,10 +6490,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6501,10 +6502,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6513,15 +6514,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6530,10 +6531,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6567,8 +6568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6613,12 +6614,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6627,19 +6628,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="38" activeTab="38"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="29" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,26 +38,27 @@
     <sheet name="home_houselist" sheetId="22" r:id="rId29"/>
     <sheet name="home_communityinfo" sheetId="23" r:id="rId30"/>
     <sheet name="home_searchinfo" sheetId="24" r:id="rId31"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId32"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId33"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId34"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId35"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId36"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId37"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId38"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId39"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId40"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId41"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId42"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId43"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId44"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId32"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId33"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId34"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId35"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId36"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId37"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId38"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId39"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId40"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId41"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId42"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId43"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId44"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId45"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="235">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -674,9 +675,788 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/booking/myDisReserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_mydisreserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-预定列表接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-分散式预约房型详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"from_type":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"from_type":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/myDisBooking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_mydisbooking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-我的预约列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"mobile":"18211076666",
+"is_look":4
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-分散集中预约取消/删除接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"look_time":"",
+"mobile":"18211076666",
+"name":"刘小良",
+"product_id":161,
+"community_id":11
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"look_time":"",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-新预约提交-分散式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-新预约提交-集中式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"type":"cancel",
+"mobile":"18211076666",
+"product_id":161,
+"community_id":11
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":2,
+"type":"delete",
+"mobile":"18211076666",
+"product_id":161,
+"community_id":11,
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-我的租约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":5
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":5,
+"signing_status":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-合同详情接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/signingInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_signingInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"signing_id":3561
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"signing_id":35611
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同不存在</t>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/subBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同相关-合同账单详情接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_subbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"bill_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"bill_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/getSmsCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_getsmscode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/resetPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_resetPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/verifyPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_verifypwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户企业实名 认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/esign/auth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_esign_auth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"name":"刘一良",
+"card_no":"123456782"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户已通过实名认证</t>
+  </si>
+  <si>
+    <t>用户-用户租赁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/lease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_lease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户账单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"apply_id":12
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/doCertificates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account_docertificates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-证件提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"name":"刘昱良",
+"sex":1,
+"card_type_id":1,
+"card_no":"370481198811156472"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户-待办事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间产品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间产品详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":3,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":2,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076667",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"1821107666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约相关-我的预约列表(状态3没了)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"type":"cancel",
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"from_type":0,
+"access_token ":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":3,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"type_id":1,
+"type":"delete",
+"id":1315,
+"mobile":"18211076666",
+"name":"刘小良",
+"house_id":161
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"city_id ":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"type_id":0,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"type_id":1,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"type_id":2,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
 "page":1,
 "district_id":274,
 "location":"116.419447,40.075503",
@@ -694,53 +1474,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"type_id":0,
-"location":"116.419447,40.075503",
-"search_name":"分散式社区三",
-"feature_id":[1],
-"direction":[1],
-"room_amount":[5],
-"district_id":4,
-"county_id ":3,
-"start_rent":1000,
-"end_rent":1500,
-"city_id ": 2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/myDisReserve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_mydisreserve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-预定列表接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"status":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"status":2
-}</t>
+    <t>/home/searchHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-社区区域商圈搜索房间统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_searchHouse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -754,695 +1496,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/booking/house</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_house</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-分散式预约房型详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"from_type":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"from_type":0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/myDisBooking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_mydisbooking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-我的预约列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token":"",
-"page":1,
-"mobile":"18211076666",
-"is_look":0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"mobile":"18211076666",
-"is_look":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"mobile":"18211076666",
-"is_look":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"mobile":"18211076666",
-"is_look":4
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-分散集中预约取消/删除接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":2,
-"look_time":"",
-"mobile":"18211076666",
-"name":"刘小良",
-"product_id":161,
-"community_id":11
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":1,
-"look_time":"",
-"mobile":"18211076666",
-"name":"刘小良",
-"house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-新预约提交-分散式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-新预约提交-集中式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":2,
-"type":"cancel",
-"mobile":"18211076666",
-"product_id":161,
-"community_id":11
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":2,
-"type":"delete",
-"mobile":"18211076666",
-"product_id":161,
-"community_id":11,
-"id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同相关-我的租约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/signing/info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signing_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"page":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"status":5
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"page":1,
-"status":5,
-"signing_status":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同相关-合同详情接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/signing/signingInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signing_signingInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"signing_id":3561
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"signing_id":35611
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同不存在</t>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/signing/subBill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同相关-合同账单详情接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signing_subbill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"bill_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"bill_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/getSmsCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_getsmscode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-密码重置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/resetPwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_resetPwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/verifyPwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_verifypwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户企业实名 认证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/esign/auth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_esign_auth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"name":"刘一良",
-"card_no":"123456782"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该用户已通过实名认证</t>
-  </si>
-  <si>
-    <t>用户-用户租赁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/lease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_lease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户账单列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"apply_id":12
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/doCertificates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_account_docertificates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-证件提交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"name":"刘昱良",
-"sex":1,
-"card_type_id":1,
-"card_no":"370481198811156472"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户-待办事项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-房间产品列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"community_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-房间产品详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":3,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":1,
-"signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":2,
-"signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076667",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"1821107666",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约相关-我的预约列表(状态3没了)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":1,
-"type":"cancel",
-"mobile":"18211076666",
-"name":"刘小良",
-"house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"community_id":11,
-"product_id":1,
-"from_type":0,
-"access_token ":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":3,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"type_id":1,
-"type":"delete",
-"id":1315,
-"mobile":"18211076666",
-"name":"刘小良",
-"house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"city_id ":1
+"search_name":"集中式"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1974,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2003,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2032,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2061,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2090,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2620,7 +2678,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2712,10 +2770,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2724,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2741,10 +2799,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2753,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2770,10 +2828,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2782,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2799,10 +2857,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2811,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2828,10 +2886,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2840,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2857,10 +2915,10 @@
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2869,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2942,22 +3000,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3049,22 +3107,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3078,22 +3136,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3102,7 +3160,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3175,22 +3233,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3199,7 +3257,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3271,10 +3329,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3283,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3454,10 +3512,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3466,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3478,15 +3536,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3495,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3507,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3568,10 +3626,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3580,11 +3638,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -3592,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4404,7 +4462,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4466,7 +4524,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4478,27 +4536,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4509,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4574,7 +4668,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4596,17 +4690,6 @@
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4812,7 +4895,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4874,7 +4957,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4915,6 +4998,113 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="21.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4966,10 +5156,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4978,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4995,10 +5185,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5007,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5024,10 +5214,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5036,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5058,7 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5110,10 +5300,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5122,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5139,10 +5329,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5151,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5184,12 +5374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5236,10 +5426,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5248,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5265,10 +5455,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5277,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5294,10 +5484,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5306,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5323,10 +5513,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5335,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5352,10 +5542,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -5364,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5386,12 +5576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5438,10 +5628,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5450,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5496,7 +5686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5548,10 +5738,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5560,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5577,10 +5767,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5589,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5632,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5684,10 +5874,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5696,10 +5886,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5731,7 +5921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5783,10 +5973,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5795,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5812,10 +6002,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5824,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5842,117 +6032,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6046,6 +6125,117 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -6093,10 +6283,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6105,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6122,10 +6312,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6134,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6169,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6221,10 +6411,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6233,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6250,10 +6440,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6262,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6279,10 +6469,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6291,10 +6481,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6310,131 +6500,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6490,10 +6555,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6502,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6514,15 +6579,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6531,19 +6596,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6560,11 +6625,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6616,10 +6806,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6628,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6640,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -5002,7 +5002,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="29" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1265,16 +1265,6 @@
 "source": 2,
 "version": "1.5.0",
 "mobile":"18211076666",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
 "password": "123456789",
 "type_id":1
 }</t>
@@ -1501,6 +1491,16 @@
 "version": "1.5.0",
 "access_token":"",
 "search_name":"集中式"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2032,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>163</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2930,7 +2930,7 @@
         <v>163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5001,7 +5001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5061,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5753,7 +5753,7 @@
         <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>137</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -458,19 +458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"card_user":"傅天",
-"user_idno":"360101198803170012",
-"card_no":"622908121000127512",
-"card_type":1,
-"mobile":"13222222222"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名不正确！</t>
   </si>
   <si>
@@ -1501,6 +1488,19 @@
 "mobile":"18211076666",
 "password": "12345678",
 "type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天天",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222222"
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2032,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2782,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2811,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2898,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3000,22 +3000,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3107,22 +3107,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3136,22 +3136,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3233,22 +3233,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3282,7 +3282,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3512,10 +3512,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3524,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3536,15 +3536,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3553,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3638,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3782,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3845,7 +3845,7 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -3903,7 +3903,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -3932,7 +3932,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -3961,7 +3961,7 @@
         <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3990,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4184,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4294,10 +4294,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4354,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4665,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4954,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5061,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5168,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5214,10 +5214,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5226,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5438,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5467,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5484,10 +5484,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5496,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5525,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -5554,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5640,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5750,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5779,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5886,10 +5886,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5985,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6014,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6184,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6295,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6423,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6452,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6481,10 +6481,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6555,10 +6555,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6567,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6579,15 +6579,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6596,10 +6596,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6680,10 +6680,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6692,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6704,15 +6704,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6721,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6806,10 +6806,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6818,19 +6818,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="236">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1234,36 +1234,6 @@
 "access_token": "",
 "status":2,
 "signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076667",
-"password": "12345678",
-"type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1502,6 +1472,40 @@
 "card_type":1,
 "mobile":"13222222222"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076667",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/login</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1968,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2061,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2090,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2119,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2148,7 +2152,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2785,7 +2789,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2814,7 +2818,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2872,7 +2876,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2918,7 +2922,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2930,7 +2934,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3874,7 +3878,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4354,7 +4358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4528,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4553,7 +4557,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4582,7 +4586,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4668,7 +4672,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4957,7 +4961,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5049,10 +5053,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5061,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5171,7 +5175,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5516,7 +5520,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5753,7 +5757,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5782,7 +5786,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6298,7 +6302,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6327,7 +6331,7 @@
         <v>201</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1000,17 +1000,6 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":2,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
 "password":"12345678",
 "sms_code":"",
 "type_id":1
@@ -1271,17 +1260,6 @@
 "access_token": "",
 "mobile":"18211078892",
 "type_id":1,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
 "user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1299,17 +1277,6 @@
 "product_id":1,
 "from_type":0,
 "access_token ":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1506,6 +1473,39 @@
   </si>
   <si>
     <t>/common/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2033,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2777,7 +2777,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -2789,7 +2789,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -2818,7 +2818,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2847,7 +2847,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2876,7 +2876,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -2905,7 +2905,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2934,7 +2934,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>165</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>167</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>167</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3237,10 +3237,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>167</v>
@@ -3249,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3333,10 +3333,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3516,10 +3516,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3528,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3540,15 +3540,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3557,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3878,7 +3878,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5757,7 +5757,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6176,10 +6176,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6188,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6287,10 +6287,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6328,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6822,19 +6822,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -2727,7 +2727,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -19,46 +19,47 @@
     <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId10"/>
     <sheet name="user_favorite_lists" sheetId="11" r:id="rId11"/>
     <sheet name="user_common_agreement" sheetId="12" r:id="rId12"/>
-    <sheet name="user_account_info" sheetId="13" r:id="rId13"/>
-    <sheet name="user_repair_detail" sheetId="14" r:id="rId14"/>
-    <sheet name="user_getsmscode" sheetId="35" r:id="rId15"/>
-    <sheet name="user_resetpwd" sheetId="36" r:id="rId16"/>
-    <sheet name="user_verifypwd" sheetId="37" r:id="rId17"/>
-    <sheet name="user_esign_auth" sheetId="38" r:id="rId18"/>
-    <sheet name="user_bill_lease" sheetId="41" r:id="rId19"/>
-    <sheet name="user_bill_lists" sheetId="40" r:id="rId20"/>
-    <sheet name="user_account_docertificates" sheetId="39" r:id="rId21"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId22"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId23"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId24"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId25"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId26"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId27"/>
-    <sheet name="home_map" sheetId="21" r:id="rId28"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId29"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId30"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId31"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId32"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId33"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId34"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId35"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId36"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId37"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId38"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId39"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId40"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId41"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId42"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId43"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId44"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId45"/>
+    <sheet name="user_common_registerlogin" sheetId="47" r:id="rId13"/>
+    <sheet name="user_account_info" sheetId="13" r:id="rId14"/>
+    <sheet name="user_repair_detail" sheetId="14" r:id="rId15"/>
+    <sheet name="user_getsmscode" sheetId="35" r:id="rId16"/>
+    <sheet name="user_resetpwd" sheetId="36" r:id="rId17"/>
+    <sheet name="user_verifypwd" sheetId="37" r:id="rId18"/>
+    <sheet name="user_esign_auth" sheetId="38" r:id="rId19"/>
+    <sheet name="user_bill_lease" sheetId="41" r:id="rId20"/>
+    <sheet name="user_bill_lists" sheetId="40" r:id="rId21"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId22"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId23"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId24"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId25"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId26"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId27"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId28"/>
+    <sheet name="home_map" sheetId="21" r:id="rId29"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId30"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId31"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId32"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId33"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId34"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId35"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId36"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId37"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId38"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId39"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId40"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId41"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId42"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId43"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId44"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId45"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId46"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="248">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1482,6 +1483,21 @@
 "access_token": "",
 "mobile":"18211078892",
 "type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/getSmsCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
 "user_type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1503,8 +1519,97 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":2,
+"type_id":4,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":4,
 "user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/registerLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_common_registerlogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2406,7 +2511,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2509,6 +2614,132 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2615,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2722,12 +2953,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2786,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2818,7 +3049,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2835,7 +3066,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2847,7 +3078,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2864,7 +3095,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -2876,7 +3107,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2905,7 +3136,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2922,7 +3153,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2934,25 +3165,200 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3059,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3185,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3278,103 +3684,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3469,6 +3778,103 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3578,7 +3984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3674,7 +4080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3782,7 +4188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4013,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4121,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4246,7 +4652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4354,7 +4760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4461,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4597,103 +5003,6 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="24" style="14" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4789,6 +5098,103 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="24" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4894,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5001,7 +5407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5108,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5252,7 +5658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5378,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -5580,7 +5986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5690,7 +6096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5826,7 +6232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5918,120 +6324,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6126,6 +6418,120 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6235,7 +6641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6363,7 +6769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6504,131 +6910,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6684,10 +6965,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6696,10 +6977,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6713,10 +6994,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6725,19 +7006,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6754,11 +7035,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
-    <sheet name="clean_houselists" sheetId="1" r:id="rId2"/>
-    <sheet name="clean_lists" sheetId="4" r:id="rId3"/>
-    <sheet name="clean_info" sheetId="3" r:id="rId4"/>
-    <sheet name="clean_doinfo" sheetId="5" r:id="rId5"/>
-    <sheet name="clean_evaluate" sheetId="6" r:id="rId6"/>
-    <sheet name="clean_doevaluate" sheetId="7" r:id="rId7"/>
-    <sheet name="clean_change" sheetId="8" r:id="rId8"/>
-    <sheet name="clean_dochange" sheetId="9" r:id="rId9"/>
-    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId10"/>
-    <sheet name="user_favorite_lists" sheetId="11" r:id="rId11"/>
-    <sheet name="user_common_agreement" sheetId="12" r:id="rId12"/>
-    <sheet name="user_common_registerlogin" sheetId="47" r:id="rId13"/>
+    <sheet name="user_registerlogin" sheetId="47" r:id="rId2"/>
+    <sheet name="clean_houselists" sheetId="1" r:id="rId3"/>
+    <sheet name="clean_lists" sheetId="4" r:id="rId4"/>
+    <sheet name="clean_info" sheetId="3" r:id="rId5"/>
+    <sheet name="clean_doinfo" sheetId="5" r:id="rId6"/>
+    <sheet name="clean_evaluate" sheetId="6" r:id="rId7"/>
+    <sheet name="clean_doevaluate" sheetId="7" r:id="rId8"/>
+    <sheet name="clean_change" sheetId="8" r:id="rId9"/>
+    <sheet name="clean_dochange" sheetId="9" r:id="rId10"/>
+    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId11"/>
+    <sheet name="user_favorite_lists" sheetId="11" r:id="rId12"/>
+    <sheet name="user_common_agreement" sheetId="12" r:id="rId13"/>
     <sheet name="user_account_info" sheetId="13" r:id="rId14"/>
     <sheet name="user_repair_detail" sheetId="14" r:id="rId15"/>
     <sheet name="user_getsmscode" sheetId="35" r:id="rId16"/>
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,6 +2277,91 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2362,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2506,12 +2591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2610,132 +2695,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3689,72 +3648,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3765,11 +3724,51 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5016,7 +5015,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5061,12 +5060,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5075,10 +5074,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5093,6 +5092,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6336,7 +6336,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6381,12 +6381,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6395,10 +6395,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7266,6 +7266,91 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -7346,7 +7431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7431,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7516,7 +7601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7599,89 +7684,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="244">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1519,9 +1519,21 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":4,
-"user_type_id":1
-}</t>
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/registerLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_common_registerlogin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1530,8 +1542,19 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":5,
-"user_type_id":1
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1543,73 +1566,6 @@
 "mobile":"18211078892",
 "type_id":6,
 "user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":4,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":5,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-快捷登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/registerLogin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_common_registerlogin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2914,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3066,7 +3022,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3083,7 +3039,7 @@
         <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -3095,7 +3051,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3112,7 +3068,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -3124,7 +3080,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3141,7 +3097,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3153,7 +3109,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -3170,7 +3126,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -3182,7 +3138,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3191,122 +3147,6 @@
         <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3650,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3698,10 +3538,10 @@
     </row>
     <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3710,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3727,10 +3567,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3739,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -28,38 +28,39 @@
     <sheet name="user_esign_auth" sheetId="38" r:id="rId19"/>
     <sheet name="user_bill_lease" sheetId="41" r:id="rId20"/>
     <sheet name="user_bill_lists" sheetId="40" r:id="rId21"/>
-    <sheet name="user_account_docertificates" sheetId="39" r:id="rId22"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId23"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId24"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId25"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId26"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId27"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId28"/>
-    <sheet name="home_map" sheetId="21" r:id="rId29"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId30"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId31"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId32"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId33"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId34"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId35"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId36"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId37"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId38"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId39"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId40"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId41"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId42"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId43"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId44"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId45"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId46"/>
+    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId22"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId23"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId24"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId25"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId26"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId27"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId28"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId29"/>
+    <sheet name="home_map" sheetId="21" r:id="rId30"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId31"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId32"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId33"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId34"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId35"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId36"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId37"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId38"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId39"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId40"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId41"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId42"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId43"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId44"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId45"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId46"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId47"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="247">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1567,6 +1568,18 @@
 "type_id":6,
 "user_type_id":1
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/getLastBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_billgetlastbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-获取可缴账单房间id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3714,7 +3727,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3825,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3873,6 +3886,91 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>190</v>
@@ -3919,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4027,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4258,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4366,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4491,7 +4589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4599,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4703,150 +4801,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="19.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4938,6 +4892,150 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="19.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5033,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5140,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5247,7 +5345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5354,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5498,7 +5596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5624,7 +5722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -5826,7 +5924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5936,7 +6034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6065,105 +6163,6 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6258,6 +6257,105 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6370,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6481,7 +6579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6609,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6750,131 +6848,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6930,10 +6903,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6942,10 +6915,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6959,10 +6932,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6971,19 +6944,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7000,11 +6973,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -1544,17 +1544,6 @@
 "access_token": "",
 "mobile":"18211078892",
 "sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
 "type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1580,6 +1569,17 @@
   </si>
   <si>
     <t>用户-获取可缴账单房间id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3035,7 +3035,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3503,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3566,7 +3566,7 @@
         <v>239</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>239</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3840,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>207</v>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="28" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -38,29 +38,30 @@
     <sheet name="home_community_list" sheetId="20" r:id="rId29"/>
     <sheet name="home_map" sheetId="21" r:id="rId30"/>
     <sheet name="home_houselist" sheetId="22" r:id="rId31"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId32"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId33"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId34"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId35"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId36"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId37"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId38"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId39"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId40"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId41"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId42"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId43"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId44"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId45"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId46"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId47"/>
+    <sheet name="home_houselistnew" sheetId="49" r:id="rId32"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId33"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId34"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId35"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId36"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId37"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId38"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId39"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId40"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId41"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId42"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId43"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId44"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId45"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId46"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId47"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId48"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="260">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1367,6 +1368,207 @@
 "end_rent":1500,
 "city_id ": 2
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/searchHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-社区区域商圈搜索房间统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_searchHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"page":1,
+"status":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token":"",
+"search_name":"集中式"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"card_user":"傅天天",
+"user_idno":"360101198803170012",
+"card_no":"622908121000127512",
+"card_type":1,
+"mobile":"13222222222"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076667",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/getSmsCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/registerLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_common_registerlogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/getLastBill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_billgetlastbill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-获取可缴账单房间id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1390,195 +1592,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/searchHouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-社区区域商圈搜索房间统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>home_searchHouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
+    <t>集中分散首页-房间列表(接口测试专用-集中式-天通苑)(排序图片优先)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
 "page":1,
-"status":0
-}</t>
+"order_type":"image",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[1],
+"entire_room_amount":[3],
+"flat_room_amount":[3],
+"room_amount":[1],
+"feature_id":[1],
+"decorate_type":[2],
+"tenancy_type ":[0],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"order",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-房间列表(接口测试专用-集中式-天通苑)(排序时间优先)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
-"version": "1.5.0",
-"access_token":"",
-"search_name":"集中式"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":1
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_room_amount":[3],
+"flat_room_amount":[3],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
-"version": "1.5.0",
-"access_token": "",
-"card_user":"傅天天",
-"user_idno":"360101198803170012",
-"card_no":"622908121000127512",
-"card_type":1,
-"mobile":"13222222222"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076667",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/login</t>
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_room_amount":[3],
+"flat_room_amount":[3],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":2,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/houseListsNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_houselistnew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
+"version": "2.2",
+"page":1,
+"order_type":"image",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[1],
+"entire_flat":[1],
+"room_amount":[1],
+"feature_id":[1],
+"decorate_type":[2],
+"tenancy_type ":[0],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"order",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[2],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[1],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
 "type_id":2,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/getSmsCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-快捷登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/registerLogin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_common_registerlogin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/getLastBill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_billgetlastbill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-获取可缴账单房间id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2107,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2139,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2168,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2197,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2886,7 +3074,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2945,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2977,7 +3165,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3023,7 +3211,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3035,7 +3223,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3064,7 +3252,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3139,7 +3327,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -3151,7 +3339,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3503,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3551,10 +3739,10 @@
     </row>
     <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3563,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3580,10 +3768,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3592,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3841,7 +4029,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3888,10 +4076,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3900,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>207</v>
@@ -4221,7 +4409,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5036,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5101,7 +5289,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5113,16 +5301,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+    <row r="3" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5132,6 +5396,150 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="24" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5238,7 +5646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5345,7 +5753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5397,10 +5805,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5409,10 +5817,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5452,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5519,7 +5927,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5596,7 +6004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5722,7 +6130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -5924,7 +6332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6027,142 +6435,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6260,6 +6532,142 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6354,7 +6762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6468,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6579,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6707,7 +7115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6848,131 +7256,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7028,10 +7311,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7040,10 +7323,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7057,10 +7340,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7069,19 +7352,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7098,11 +7381,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="28" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="261">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1767,6 +1767,15 @@
 "rent_order":"reverse",
 "brand_id":"",
 "community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3915,7 +3924,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4026,10 +4035,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4074,7 +4083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>242</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>241</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4100,6 +4109,35 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5399,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,64 +4,66 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="user_registerlogin" sheetId="47" r:id="rId2"/>
-    <sheet name="clean_houselists" sheetId="1" r:id="rId3"/>
-    <sheet name="clean_lists" sheetId="4" r:id="rId4"/>
-    <sheet name="clean_info" sheetId="3" r:id="rId5"/>
-    <sheet name="clean_doinfo" sheetId="5" r:id="rId6"/>
-    <sheet name="clean_evaluate" sheetId="6" r:id="rId7"/>
-    <sheet name="clean_doevaluate" sheetId="7" r:id="rId8"/>
-    <sheet name="clean_change" sheetId="8" r:id="rId9"/>
-    <sheet name="clean_dochange" sheetId="9" r:id="rId10"/>
-    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId11"/>
-    <sheet name="user_favorite_lists" sheetId="11" r:id="rId12"/>
-    <sheet name="user_common_agreement" sheetId="12" r:id="rId13"/>
-    <sheet name="user_account_info" sheetId="13" r:id="rId14"/>
-    <sheet name="user_repair_detail" sheetId="14" r:id="rId15"/>
-    <sheet name="user_getsmscode" sheetId="35" r:id="rId16"/>
-    <sheet name="user_resetpwd" sheetId="36" r:id="rId17"/>
-    <sheet name="user_verifypwd" sheetId="37" r:id="rId18"/>
-    <sheet name="user_esign_auth" sheetId="38" r:id="rId19"/>
-    <sheet name="user_bill_lease" sheetId="41" r:id="rId20"/>
-    <sheet name="user_bill_lists" sheetId="40" r:id="rId21"/>
-    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId22"/>
-    <sheet name="user_account_docertificates" sheetId="39" r:id="rId23"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId24"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId25"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId26"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId27"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId28"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId29"/>
-    <sheet name="home_map" sheetId="21" r:id="rId30"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId31"/>
-    <sheet name="home_houselistnew" sheetId="49" r:id="rId32"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId33"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId34"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId35"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId36"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId37"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId38"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId39"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId40"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId41"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId42"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId43"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId44"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId45"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId46"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId47"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId48"/>
+    <sheet name="Sheet1" sheetId="50" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="51" r:id="rId4"/>
+    <sheet name="clean_houselists" sheetId="1" r:id="rId5"/>
+    <sheet name="clean_lists" sheetId="4" r:id="rId6"/>
+    <sheet name="clean_info" sheetId="3" r:id="rId7"/>
+    <sheet name="clean_doinfo" sheetId="5" r:id="rId8"/>
+    <sheet name="clean_evaluate" sheetId="6" r:id="rId9"/>
+    <sheet name="clean_doevaluate" sheetId="7" r:id="rId10"/>
+    <sheet name="clean_change" sheetId="8" r:id="rId11"/>
+    <sheet name="clean_dochange" sheetId="9" r:id="rId12"/>
+    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId13"/>
+    <sheet name="user_favorite_lists" sheetId="11" r:id="rId14"/>
+    <sheet name="user_common_agreement" sheetId="12" r:id="rId15"/>
+    <sheet name="user_account_info" sheetId="13" r:id="rId16"/>
+    <sheet name="user_repair_detail" sheetId="14" r:id="rId17"/>
+    <sheet name="user_getsmscode" sheetId="35" r:id="rId18"/>
+    <sheet name="user_resetpwd" sheetId="36" r:id="rId19"/>
+    <sheet name="user_verifypwd" sheetId="37" r:id="rId20"/>
+    <sheet name="user_esign_auth" sheetId="38" r:id="rId21"/>
+    <sheet name="user_bill_lease" sheetId="41" r:id="rId22"/>
+    <sheet name="user_bill_lists" sheetId="40" r:id="rId23"/>
+    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId24"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId25"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId26"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId27"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId28"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId29"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId30"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId31"/>
+    <sheet name="home_map" sheetId="21" r:id="rId32"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId33"/>
+    <sheet name="home_houselistnew" sheetId="49" r:id="rId34"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId35"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId36"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId37"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId38"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId39"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId40"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId41"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId42"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId43"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId44"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId45"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId46"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId47"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId48"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId49"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId50"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="263">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1253,17 +1255,6 @@
 "mobile":"18211076666",
 "name":"刘小良",
 "house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1496,17 +1487,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户-快捷登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1519,17 +1499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/bill/getLastBill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1539,17 +1508,6 @@
   </si>
   <si>
     <t>用户-获取可缴账单房间id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1776,6 +1734,72 @@
 "version": "1.5.0",
 "access_token": "",
 "status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2244,7 +2268,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2304,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2336,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2365,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2394,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2443,6 +2467,176 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2527,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2613,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2757,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2864,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2971,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3078,12 +3272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3142,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3174,7 +3368,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3220,7 +3414,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3232,7 +3426,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3261,7 +3455,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3290,7 +3484,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3307,7 +3501,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3319,7 +3513,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -3336,7 +3530,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -3348,7 +3542,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3367,7 +3561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3474,7 +3668,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3600,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3696,133 +4074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3919,7 +4171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4033,12 +4285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4085,10 +4337,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4097,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4114,10 +4366,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4126,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4147,7 +4399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4243,7 +4495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4351,7 +4603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4447,7 +4699,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4582,7 +4834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4690,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4815,7 +5067,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4923,7 +5358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5030,93 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5183,7 +5532,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5212,7 +5561,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5241,7 +5590,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5260,7 +5609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5327,7 +5676,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5344,7 +5693,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5356,7 +5705,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5373,7 +5722,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5385,7 +5734,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5402,7 +5751,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5414,7 +5763,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5433,7 +5782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5485,10 +5834,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5497,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5517,7 +5866,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5529,7 +5878,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5546,7 +5895,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5558,7 +5907,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5577,7 +5926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5684,7 +6033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5751,7 +6100,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5791,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5843,10 +6192,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5855,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5898,7 +6247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5965,7 +6314,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6042,7 +6391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6168,7 +6517,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6370,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6480,92 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6661,7 +6938,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6694,219 +6971,6 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F5" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6964,6 +7028,219 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>197</v>
@@ -7025,7 +7302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7092,7 +7369,7 @@
         <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7121,7 +7398,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7153,7 +7430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7297,7 +7574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7422,7 +7699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7548,7 +7825,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7645,7 +8008,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7730,7 +8178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7815,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7898,174 +8346,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -29,41 +29,42 @@
     <sheet name="user_verifypwd" sheetId="37" r:id="rId20"/>
     <sheet name="user_esign_auth" sheetId="38" r:id="rId21"/>
     <sheet name="user_bill_lease" sheetId="41" r:id="rId22"/>
-    <sheet name="user_bill_lists" sheetId="40" r:id="rId23"/>
-    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId24"/>
-    <sheet name="user_account_docertificates" sheetId="39" r:id="rId25"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId26"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId27"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId28"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId29"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId30"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId31"/>
-    <sheet name="home_map" sheetId="21" r:id="rId32"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId33"/>
-    <sheet name="home_houselistnew" sheetId="49" r:id="rId34"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId35"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId36"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId37"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId38"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId39"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId40"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId41"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId42"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId43"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId44"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId45"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId46"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId47"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId48"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId49"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId50"/>
+    <sheet name="user_bill_leasenew" sheetId="52" r:id="rId23"/>
+    <sheet name="user_bill_lists" sheetId="40" r:id="rId24"/>
+    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId25"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId26"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId27"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId28"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId29"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId30"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId31"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId32"/>
+    <sheet name="home_map" sheetId="21" r:id="rId33"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId34"/>
+    <sheet name="home_houselistnew" sheetId="49" r:id="rId35"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId36"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId37"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId38"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId39"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId40"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId41"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId42"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId43"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId44"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId45"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId46"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId47"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId48"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId49"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId50"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId51"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="271">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1020,10 +1021,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户-检验密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
@@ -1036,17 +1033,6 @@
   </si>
   <si>
     <t>密码错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1802,6 +1788,65 @@
 "user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"1234567890",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/leaseNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_leasenew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户租赁new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2360,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2389,7 +2434,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2418,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2447,7 +2492,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3232,7 +3277,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3327,7 +3372,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3336,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3356,7 +3401,7 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3368,7 +3413,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3385,7 +3430,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -3397,7 +3442,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3414,7 +3459,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3426,7 +3471,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3443,7 +3488,7 @@
         <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -3455,7 +3500,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3472,7 +3517,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -3484,7 +3529,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3501,7 +3546,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3513,7 +3558,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -3530,7 +3575,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -3542,7 +3587,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3672,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3723,7 +3768,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3735,7 +3780,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3749,10 +3794,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3761,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3781,7 +3826,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -3793,7 +3838,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3807,10 +3852,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3819,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3854,10 +3899,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3907,7 +3952,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>167</v>
@@ -3919,7 +3964,7 @@
         <v>169</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3936,7 +3981,7 @@
         <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>167</v>
@@ -3948,7 +3993,7 @@
         <v>169</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3957,19 +4002,66 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1006</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4030,10 +4122,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>167</v>
@@ -4042,10 +4134,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4054,7 +4146,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4079,7 +4171,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4126,10 +4218,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4138,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -4150,19 +4242,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4172,6 +4282,121 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4223,10 +4448,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4235,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4247,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4264,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4285,12 +4510,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4337,10 +4562,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4349,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4366,10 +4591,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4378,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4399,7 +4624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4451,10 +4676,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -4463,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4475,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4495,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4603,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4699,7 +4924,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4834,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4939,131 +5164,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5122,7 +5222,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5134,7 +5234,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5148,10 +5248,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -5160,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5180,7 +5280,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5192,7 +5292,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5206,10 +5306,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5218,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5251,6 +5351,131 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="36.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5358,7 +5583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5465,7 +5690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5532,7 +5757,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5561,7 +5786,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5590,7 +5815,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5609,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5676,7 +5901,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5693,7 +5918,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5705,7 +5930,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5722,7 +5947,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5734,7 +5959,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5751,7 +5976,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5763,7 +5988,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5782,7 +6007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5834,10 +6059,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5846,10 +6071,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5866,7 +6091,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5878,7 +6103,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5895,7 +6120,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5907,7 +6132,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5926,7 +6151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6033,7 +6258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6100,7 +6325,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6140,7 +6365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6192,10 +6417,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6204,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6247,7 +6472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6314,7 +6539,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6391,7 +6616,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6517,20 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6672,7 +6897,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -6732,7 +6957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6842,7 +7067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6909,7 +7134,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6938,7 +7163,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6978,7 +7203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7077,7 +7302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7191,7 +7416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7243,10 +7468,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7255,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7302,7 +7527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7354,10 +7579,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7366,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7383,10 +7608,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7395,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7430,7 +7655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7571,131 +7796,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7751,10 +7851,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7763,10 +7863,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7780,10 +7880,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7792,19 +7892,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7821,7 +7921,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7913,6 +8012,132 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7963,10 +8188,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7975,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7987,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="284">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -985,10 +985,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户-密码重置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/common/resetPwd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -998,18 +994,6 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1187,14 +1171,6 @@
   </si>
   <si>
     <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1242,10 +1218,6 @@
 "name":"刘小良",
 "house_id":161
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1633,7 +1605,201 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)</t>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[2],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[1],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":2,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"1234567890",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/leaseNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_leasenew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户租赁new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1663,152 +1829,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"page":1,
-"order_type":"time",
-"district_id":274,
-"location":"116.419447,40.075503",
-"search_name":"集中式",
-"county_id":249,
-"start_rent":0,
-"end_rent":15000,
-"direction":[3],
-"entire_flat":[2],
-"room_amount":[1],
-"feature_id":[2],
-"decorate_type":[2],
-"tenancy_type ":[1],
-"city_id ": 2,
-"type_id":0,
-"rent_order":"reverse",
-"brand_id":"",
-"community_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"page":1,
-"order_type":"time",
-"district_id":274,
-"location":"116.419447,40.075503",
-"search_name":"集中式",
-"county_id":249,
-"start_rent":0,
-"end_rent":15000,
-"direction":[3],
-"entire_flat":[1],
-"room_amount":[1],
-"feature_id":[2],
-"decorate_type":[2],
-"tenancy_type ":[1],
-"city_id ": 2,
-"type_id":2,
-"rent_order":"reverse",
-"brand_id":"",
-"community_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（企业）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"1234567890",
-"type_id":2
-}</t>
+    <t>集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)
+（未提测）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1818,7 +1840,66 @@
 "access_token": "",
 "mobile":"18211078892",
 "password":"12345678",
-"type_id":2
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1829,24 +1910,18 @@
 "access_token": "",
 "mobile":"18211078892",
 "password":"12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/leaseNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_leasenew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户租赁new</t>
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2373,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2405,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2434,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2463,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2492,7 +2567,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3277,7 +3352,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3321,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3372,7 +3447,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3381,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3401,7 +3476,7 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3413,7 +3488,7 @@
         <v>162</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3430,7 +3505,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -3442,7 +3517,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3459,7 +3534,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3471,7 +3546,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3488,7 +3563,7 @@
         <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -3500,7 +3575,7 @@
         <v>162</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3517,7 +3592,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -3529,7 +3604,7 @@
         <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -3546,7 +3621,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3558,7 +3633,7 @@
         <v>162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -3575,7 +3650,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -3587,7 +3662,7 @@
         <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3608,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3656,24 +3731,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3685,27 +3760,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+    <row r="3" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3718,7 +3869,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" activeCellId="1" sqref="F2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3919,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3780,7 +3931,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3794,10 +3945,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3806,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3826,7 +3977,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -3838,7 +3989,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3852,10 +4003,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3864,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3949,22 +4100,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3978,22 +4129,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4002,15 +4153,15 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4019,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4036,10 +4187,10 @@
     </row>
     <row r="5" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4048,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4060,7 +4211,7 @@
         <v>1006</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4122,22 +4273,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4146,7 +4297,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4171,7 +4322,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4218,10 +4369,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4230,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -4242,24 +4393,24 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -4271,7 +4422,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4484,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4345,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -4362,10 +4513,10 @@
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4374,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -4386,7 +4537,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4448,10 +4599,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4460,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4472,15 +4623,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4489,10 +4640,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4515,7 +4666,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4562,10 +4713,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4574,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4591,10 +4742,10 @@
     </row>
     <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4603,19 +4754,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4676,10 +4827,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -4688,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4700,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -4924,7 +5075,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5222,7 +5373,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5234,7 +5385,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5248,10 +5399,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -5260,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5280,7 +5431,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5292,7 +5443,7 @@
         <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5306,10 +5457,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5318,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5757,7 +5908,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5786,7 +5937,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5815,7 +5966,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5901,7 +6052,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5918,7 +6069,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5930,7 +6081,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5947,7 +6098,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5959,7 +6110,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5976,7 +6127,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5988,7 +6139,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -6012,7 +6163,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6059,10 +6210,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6071,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6091,7 +6242,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6103,7 +6254,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6120,7 +6271,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6132,7 +6283,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6325,7 +6476,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6417,10 +6568,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6429,10 +6580,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6539,7 +6690,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6897,7 +7048,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7134,7 +7285,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7163,7 +7314,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7468,10 +7619,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7480,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7579,10 +7730,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7591,10 +7742,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7608,10 +7759,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7620,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8188,10 +8339,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8200,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8212,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4666,7 +4666,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="47" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -57,17 +57,18 @@
     <sheet name="booking_cancel_02" sheetId="31" r:id="rId48"/>
     <sheet name="booking_info" sheetId="43" r:id="rId49"/>
     <sheet name="booking_product" sheetId="44" r:id="rId50"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId51"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId52"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId53"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId54"/>
+    <sheet name="booking_companyinfo" sheetId="56" r:id="rId51"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId52"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId53"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId54"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId55"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="304">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2014,6 +2015,27 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/companyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_companyinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-公司详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
 "id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5115,7 +5137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -8277,7 +8299,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8401,6 +8423,91 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8541,131 +8648,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8721,10 +8703,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8733,10 +8715,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8750,10 +8732,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8762,19 +8744,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8791,11 +8773,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,37 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="47" activeTab="50"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="user_registerlogin" sheetId="47" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="50" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="51" r:id="rId4"/>
-    <sheet name="clean_houselists" sheetId="1" r:id="rId5"/>
-    <sheet name="clean_lists" sheetId="4" r:id="rId6"/>
-    <sheet name="clean_info" sheetId="3" r:id="rId7"/>
-    <sheet name="clean_doinfo" sheetId="5" r:id="rId8"/>
-    <sheet name="clean_evaluate" sheetId="6" r:id="rId9"/>
-    <sheet name="clean_doevaluate" sheetId="7" r:id="rId10"/>
-    <sheet name="clean_change" sheetId="8" r:id="rId11"/>
-    <sheet name="clean_dochange" sheetId="9" r:id="rId12"/>
-    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId13"/>
-    <sheet name="intelligence_houselists" sheetId="53" r:id="rId14"/>
-    <sheet name="user_favorite_lists" sheetId="11" r:id="rId15"/>
-    <sheet name="user_common_agreement" sheetId="12" r:id="rId16"/>
-    <sheet name="user_account_info" sheetId="13" r:id="rId17"/>
-    <sheet name="user_repair_detail" sheetId="14" r:id="rId18"/>
-    <sheet name="user_getsmscode" sheetId="35" r:id="rId19"/>
-    <sheet name="user_resetpwd" sheetId="36" r:id="rId20"/>
-    <sheet name="user_verifypwd" sheetId="37" r:id="rId21"/>
-    <sheet name="user_esign_auth" sheetId="38" r:id="rId22"/>
-    <sheet name="user_bill_lease" sheetId="41" r:id="rId23"/>
-    <sheet name="user_bill_leasenew" sheetId="52" r:id="rId24"/>
-    <sheet name="user_bill_lists" sheetId="40" r:id="rId25"/>
-    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId26"/>
-    <sheet name="user_bill_info" sheetId="54" r:id="rId27"/>
-    <sheet name="user_order_lists" sheetId="55" r:id="rId28"/>
+    <sheet name="clean_houselists" sheetId="1" r:id="rId4"/>
+    <sheet name="clean_lists" sheetId="4" r:id="rId5"/>
+    <sheet name="clean_info" sheetId="3" r:id="rId6"/>
+    <sheet name="clean_doinfo" sheetId="5" r:id="rId7"/>
+    <sheet name="clean_evaluate" sheetId="6" r:id="rId8"/>
+    <sheet name="clean_doevaluate" sheetId="7" r:id="rId9"/>
+    <sheet name="clean_change" sheetId="8" r:id="rId10"/>
+    <sheet name="clean_dochange" sheetId="9" r:id="rId11"/>
+    <sheet name="intelligence_houseinfo" sheetId="10" r:id="rId12"/>
+    <sheet name="intelligence_houselists" sheetId="53" r:id="rId13"/>
+    <sheet name="user_favorite_lists" sheetId="11" r:id="rId14"/>
+    <sheet name="user_common_agreement" sheetId="12" r:id="rId15"/>
+    <sheet name="user_account_info" sheetId="13" r:id="rId16"/>
+    <sheet name="user_repair_detail" sheetId="14" r:id="rId17"/>
+    <sheet name="user_getsmscode" sheetId="35" r:id="rId18"/>
+    <sheet name="user_resetpwd" sheetId="36" r:id="rId19"/>
+    <sheet name="user_verifypwd" sheetId="37" r:id="rId20"/>
+    <sheet name="user_esign_auth" sheetId="38" r:id="rId21"/>
+    <sheet name="user_bill_lease" sheetId="41" r:id="rId22"/>
+    <sheet name="user_bill_leasenew" sheetId="52" r:id="rId23"/>
+    <sheet name="user_bill_lists" sheetId="40" r:id="rId24"/>
+    <sheet name="user_bill_getlastbill" sheetId="48" r:id="rId25"/>
+    <sheet name="user_bill_info" sheetId="54" r:id="rId26"/>
+    <sheet name="user_order_lists" sheetId="55" r:id="rId27"/>
+    <sheet name="user_order_detail" sheetId="68" r:id="rId28"/>
     <sheet name="user_account_docertificates" sheetId="39" r:id="rId29"/>
     <sheet name="wallet_bank_lists" sheetId="15" r:id="rId30"/>
     <sheet name="wallet_bank_bind" sheetId="16" r:id="rId31"/>
@@ -62,13 +62,24 @@
     <sheet name="signing_signinginfo" sheetId="33" r:id="rId53"/>
     <sheet name="signing_subbill" sheetId="34" r:id="rId54"/>
     <sheet name="account_todo" sheetId="42" r:id="rId55"/>
+    <sheet name="act_recommend_sitelist" sheetId="57" r:id="rId56"/>
+    <sheet name="act_recommend_info" sheetId="58" r:id="rId57"/>
+    <sheet name="act_recommend_submit" sheetId="59" r:id="rId58"/>
+    <sheet name="act_recommend_invitelist" sheetId="60" r:id="rId59"/>
+    <sheet name="act_memcoupon_list" sheetId="61" r:id="rId60"/>
+    <sheet name="act_coupon_list" sheetId="63" r:id="rId61"/>
+    <sheet name="act_coupon_get" sheetId="64" r:id="rId62"/>
+    <sheet name="act_action_list" sheetId="62" r:id="rId63"/>
+    <sheet name="act_action_use" sheetId="65" r:id="rId64"/>
+    <sheet name="act_manycreate" sheetId="66" r:id="rId65"/>
+    <sheet name="act_hx_orders" sheetId="67" r:id="rId66"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="388">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -387,10 +398,6 @@
   </si>
   <si>
     <t>user_repair_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-维修申请-详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -712,24 +719,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"from_type":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"from_type":0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/booking/myDisBooking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1081,15 +1070,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"apply_id":12
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/account/doCertificates</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1197,18 +1177,6 @@
 "mobile":"18211076666",
 "name":"刘小良",
 "house_id":161
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"community_id":11,
-"product_id":1,
-"from_type":0,
-"access_token ":""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1242,24 +1210,6 @@
 "source": 1,
 "version": "1.5.0",
 "city_id ":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"type_id":0,
-"location":"116.419447,40.075503",
-"search_name":"分散式社区三",
-"feature_id":[1],
-"direction":[1],
-"room_amount":[5],
-"district_id":4,
-"county_id ":3,
-"start_rent":1000,
-"end_rent":1500,
-"city_id ": 2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1332,16 +1282,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
@@ -1357,26 +1297,6 @@
     <t>{
 "source": 2,
 "version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
 "mobile":"18211076667",
 "password": "12345678",
 "type_id":1
@@ -1408,17 +1328,6 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
 "type_id":1,
 "user_type_id":1
 }</t>
@@ -1446,17 +1355,6 @@
   </si>
   <si>
     <t>用户-获取可缴账单房间id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1613,6 +1511,915 @@
   <si>
     <t>{
 "source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"1234567890",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/leaseNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_leasenew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户租赁new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intelligence/houseLists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence_houselists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智居接口-智居房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intelligence/houseInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":1640519
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":1641202
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":2,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户账单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-支付记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"page":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/companyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_companyinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-公司详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_sitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_sitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/siteList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/actInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/actInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-提交推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_invitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/inviteList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/memcoupon/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-我的优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_memcoupon_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"limit":3
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号已存在推荐记录，不能重复推荐</t>
+  </si>
+  <si>
+    <t>act_action_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/coupon/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_coupon_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-领券中心-惠券列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/coupon/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_coupon_get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/action/use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_action_use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-优惠券使用校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_order_manyCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1,
+"name":"刘客户",
+"mobile":"18211076666",
+"card_no":"",
+"remark":"有意租房",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_hx_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/action/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/hx/orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-后台核销-提交核销(现金)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"coupon_id":[18],
+"admin_id":15658,
+"refund_type":2,
+"receipt_name":"",
+"receipt_bank_name":"",
+"receipt_card_no":"",
+"remark":"自动化测试（现金核销）"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-可用优惠券列表（房间id:1638947）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"city_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1,
+"name":"刘客户",
+"mobile":"18211076666",
+"card_no":"",
+"remark":"有意租房",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"limit":10
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动已结束</t>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-领券中心-领取优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061],
+"coupon_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只可在系统后台核销</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061],
+"coupon_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/manyCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-提交订单并使用优惠券（多账单生成订单,房间id：1638947）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":58800
+}]
+}],
+"coupons_id":299
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券记录不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":588
+}]
+}],
+"coupons_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在不符合条件的账单</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":58800
+}]
+}],
+"coupons_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-后台核销-提交核销(转账)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"coupon_id":[18],
+"admin_id":15658,
+"refund_type":1,
+"receipt_name":"刘昱良",
+"receipt_bank_name":"中行",
+"receipt_card_no":"1234567",
+"remark":"自动化测试（转账核销）"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-支付详情（新加优惠券）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"orders_id":21325
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"house_id":1638947,
+"mobile":"",
+"from_type":0,
+"booking_id":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"house_id":1638947,
+"mobile":"",
+"from_type":1,
+"booking_id":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"mobile":"",
+"from_type":0,
+"booking_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"mobile":"",
+"from_type":1,
+"booking_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"type_id":0,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
 "version": "2.2",
 "page":1,
 "order_type":"time",
@@ -1634,152 +2441,6 @@
 "brand_id":"",
 "community_id":""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（企业）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"1234567890",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/leaseNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_leasenew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户租赁new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-  </si>
-  <si>
-    <t>用户-快捷登录（用户端）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-快捷登录（用户端）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1809,56 +2470,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)
-（未提测）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-密码重置（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-密码重置（企业）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+"id":21325
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"search_name":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"search_name":""
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1878,8 +2525,8 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"type_id":2,
-"user_type_id":2
+"type_id":6,
+"user_type_id":1
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1889,42 +2536,9 @@
 "version": "1.5.0",
 "access_token": "",
 "mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/intelligence/houseLists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intelligence_houselists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智居接口-智居房间列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/intelligence/houseInfo</t>
+"type_id":7,
+"user_type_id":1
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1932,7 +2546,9 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"house_id":1640519
+"mobile":"18211078892",
+"type_id":4,
+"user_type_id":2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1941,18 +2557,33 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"house_id":1641202
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已存在</t>
   </si>
   <si>
     <t>{
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"status":1,
-"signing_id":1
-}</t>
+"mobile":"18211078892",
+"type_id":7,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（未上线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业
+（未上线）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1960,45 +2591,14 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"status":2,
-"signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户账单详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_order_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-支付记录</t>
+"mobile":"18211078892",
+"type_id":4,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2006,8 +2606,14 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"page":1
-}</t>
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2015,29 +2621,12 @@
 "source": 1,
 "version": "1.5.0",
 "access_token": "",
-"id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/companyInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_companyinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-公司详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"id":1
-}</t>
+"apply_id":86
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-维修申请-详情（这版不测）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2136,11 +2725,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2208,6 +2810,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2515,7 +3121,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2575,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2607,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2636,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2665,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2694,7 +3300,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2714,91 +3320,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="121.5">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2883,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2968,12 +3489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3032,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -3061,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3090,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3112,7 +3633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3164,10 +3685,10 @@
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3176,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3193,10 +3714,10 @@
     </row>
     <row r="3" spans="1:9" ht="87.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3205,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3217,7 +3738,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3390,7 +3911,7 @@
         <v>1001</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -3410,7 +3931,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3429,12 +3950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3536,12 +4057,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3643,12 +4164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3698,7 +4219,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3707,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>386</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3750,12 +4271,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3802,10 +4323,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -3814,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3831,10 +4352,10 @@
     </row>
     <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -3843,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3860,10 +4381,10 @@
     </row>
     <row r="4" spans="1:9" ht="108">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -3872,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3889,10 +4410,10 @@
     </row>
     <row r="5" spans="1:9" ht="108">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -3901,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3918,10 +4439,10 @@
     </row>
     <row r="6" spans="1:9" ht="108">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -3930,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3947,10 +4468,10 @@
     </row>
     <row r="7" spans="1:9" ht="108">
       <c r="A7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -3959,27 +4480,27 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -3988,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4005,10 +4526,10 @@
     </row>
     <row r="9" spans="1:9" ht="108">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -4017,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4029,6 +4550,180 @@
         <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="108">
+      <c r="A10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="108">
+      <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="108">
+      <c r="A12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="108">
+      <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="108">
+      <c r="A14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="108">
+      <c r="A15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4039,12 +4734,195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="123" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="125.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="123" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="125.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" activeCellId="1" sqref="F2 F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4091,10 +4969,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -4103,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4120,10 +4998,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -4132,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4149,10 +5027,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4161,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4178,10 +5056,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4190,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4225,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4273,24 +5151,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="123" customHeight="1">
+    <row r="2" spans="1:9" ht="125.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4302,15 +5180,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="125.25" customHeight="1">
+    <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -4319,24 +5197,24 @@
         <v>163</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="123" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="125.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4345,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4365,10 +5243,10 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -4377,190 +5255,7 @@
         <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="125.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="108">
-      <c r="A3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="125.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="125.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4569,7 +5264,7 @@
         <v>1006</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +5274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4631,22 +5326,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4655,7 +5350,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4675,12 +5370,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4725,12 +5420,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4739,27 +5434,27 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5">
+    </row>
+    <row r="3" spans="1:9" ht="107.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4768,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4780,7 +5475,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4842,10 +5537,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4854,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -4866,15 +5561,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4883,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -4895,7 +5590,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +5600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4957,10 +5652,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4969,10 +5664,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4981,15 +5676,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -4998,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5010,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5071,10 +5766,10 @@
     </row>
     <row r="2" spans="1:9" ht="81">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5083,10 +5778,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5095,15 +5790,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="81">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5112,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5124,7 +5819,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5133,12 +5828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5185,10 +5880,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5197,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5209,7 +5904,36 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5219,12 +5943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5271,10 +5995,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5283,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5295,13 +6019,98 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="105" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5357,10 +6166,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5369,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5381,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5406,7 +6215,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5453,10 +6262,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5465,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5482,10 +6291,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -5494,10 +6303,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5511,10 +6320,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5523,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5540,10 +6349,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5552,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5636,10 +6445,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5648,10 +6457,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5744,10 +6553,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5756,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5773,10 +6582,10 @@
     </row>
     <row r="3" spans="1:9" ht="135">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5785,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5797,15 +6606,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135">
       <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5814,10 +6623,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5826,15 +6635,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135">
       <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5843,10 +6652,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5855,15 +6664,15 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135">
       <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -5872,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -5884,15 +6693,15 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -5901,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -5913,7 +6722,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5975,10 +6784,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5987,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6083,10 +6892,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6095,10 +6904,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6112,10 +6921,10 @@
     </row>
     <row r="3" spans="1:9" ht="81">
       <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6124,10 +6933,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6136,7 +6945,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6208,10 +7017,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6220,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6316,10 +7125,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6328,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6376,7 +7185,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6423,10 +7232,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6435,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>364</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6452,10 +7261,10 @@
     </row>
     <row r="3" spans="1:9" ht="229.5">
       <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6464,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6481,10 +7290,10 @@
     </row>
     <row r="4" spans="1:9" ht="229.5">
       <c r="A4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6493,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6567,10 +7376,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6579,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6596,10 +7405,10 @@
     </row>
     <row r="3" spans="1:9" ht="390.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6608,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6625,10 +7434,10 @@
     </row>
     <row r="4" spans="1:9" ht="390.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6637,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6654,10 +7463,10 @@
     </row>
     <row r="5" spans="1:9" ht="390.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -6666,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -6693,7 +7502,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6740,10 +7549,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6752,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6769,10 +7578,10 @@
     </row>
     <row r="3" spans="1:9" ht="390.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6781,10 +7590,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6798,10 +7607,10 @@
     </row>
     <row r="4" spans="1:9" ht="390.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6810,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6884,10 +7693,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6896,10 +7705,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6941,14 +7750,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7004,10 +7886,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7016,10 +7898,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7111,10 +7993,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7123,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7218,10 +8100,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7230,10 +8112,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7247,10 +8129,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5">
       <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7259,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7276,10 +8158,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5">
       <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7288,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7315,7 +8197,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7360,12 +8242,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1">
+    <row r="2" spans="1:9" ht="157.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7374,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7389,12 +8271,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="81">
+    <row r="3" spans="1:9" ht="157.5" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7403,10 +8285,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7488,10 +8370,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7500,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7517,10 +8399,10 @@
     </row>
     <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7529,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7546,10 +8428,10 @@
     </row>
     <row r="4" spans="1:9" ht="108">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7558,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7575,10 +8457,10 @@
     </row>
     <row r="5" spans="1:9" ht="108">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7587,10 +8469,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7604,10 +8486,10 @@
     </row>
     <row r="6" spans="1:9" ht="108">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -7616,10 +8498,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -7690,10 +8572,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7702,10 +8584,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7800,10 +8682,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7812,10 +8694,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7829,10 +8711,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7841,10 +8723,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7936,10 +8818,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7948,10 +8830,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8035,10 +8917,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8047,10 +8929,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8064,10 +8946,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8076,10 +8958,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8099,10 +8981,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8149,10 +9031,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8161,10 +9043,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8175,31 +9057,6 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8213,7 +9070,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8258,12 +9115,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5">
+    <row r="2" spans="1:9" ht="94.5">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8272,10 +9129,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8290,16 +9147,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8346,10 +9202,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8358,10 +9214,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8373,24 +9229,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="148.5">
+    <row r="3" spans="1:9" ht="176.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>203</v>
+        <v>363</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8401,20 +9257,6 @@
       <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8426,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8474,10 +9316,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8486,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8559,10 +9401,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8571,10 +9413,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8588,10 +9430,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8600,10 +9442,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8617,10 +9459,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -8629,10 +9471,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8703,10 +9545,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8715,27 +9557,27 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8744,10 +9586,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8756,7 +9598,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8828,10 +9670,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8840,11 +9682,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -8852,15 +9694,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8869,10 +9711,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8907,7 +9749,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8954,10 +9796,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8966,10 +9808,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8978,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8999,74 +9841,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5">
+    <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9075,7 +9917,36 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9084,7 +9955,358 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" ht="198" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="198" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9169,7 +10391,723 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2106</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2112</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2111</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9254,7 +11192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9337,4 +11275,89 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="62" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -73,13 +73,14 @@
     <sheet name="act_action_use" sheetId="65" r:id="rId64"/>
     <sheet name="act_manycreate" sheetId="66" r:id="rId65"/>
     <sheet name="act_hx_orders" sheetId="67" r:id="rId66"/>
+    <sheet name="user_repair_category" sheetId="69" r:id="rId67"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="402">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2627,6 +2628,72 @@
   </si>
   <si>
     <t>用户-维修申请-详情（这版不测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseDescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-维修类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"hosue_id":1639458
+}
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2682,7 +2749,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2698,6 +2765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2742,7 +2815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2814,6 +2887,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4168,7 +4247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4919,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4938,7 +5017,7 @@
     <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4966,8 +5045,11 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="121.5">
+      <c r="J1" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
@@ -4995,8 +5077,11 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="154.5" customHeight="1">
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="154.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>217</v>
       </c>
@@ -5024,8 +5109,11 @@
       <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="121.5">
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="121.5">
       <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
@@ -5053,8 +5141,11 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="154.5" customHeight="1">
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="154.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>217</v>
       </c>
@@ -5082,8 +5173,11 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -10996,7 +11090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -11104,6 +11198,87 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5">
+      <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="62" activeTab="66"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="57" activeTab="59"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -73,14 +73,17 @@
     <sheet name="act_action_use" sheetId="65" r:id="rId64"/>
     <sheet name="act_manycreate" sheetId="66" r:id="rId65"/>
     <sheet name="act_hx_orders" sheetId="67" r:id="rId66"/>
-    <sheet name="user_repair_category" sheetId="69" r:id="rId67"/>
+    <sheet name="user_repair_list" sheetId="70" r:id="rId67"/>
+    <sheet name="user_repair_category" sheetId="69" r:id="rId68"/>
+    <sheet name="user_repair_good" sheetId="71" r:id="rId69"/>
+    <sheet name="user_repair_detail1" sheetId="72" r:id="rId70"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="421">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1364,26 +1367,6 @@
   </si>
   <si>
     <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"page":1,
-"district_id":274,
-"location":"116.419447,40.075503",
-"search_name":"集中式",
-"county_id":249,
-"start_rent":0,
-"end_rent":15000,
-"feature_id":[1],
-"direction":[1],
-"room_amount":[1],
-"tenancy_type ":[0],
-"city_id ": 2,
-"type_id":0
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1449,6 +1432,1187 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/home/houseListsNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_houselistnew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[2],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":0,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":1,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+  </si>
+  <si>
+    <t>用户-检验密码（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-检验密码（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"1234567890",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/leaseNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_leasenew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户租赁new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-快捷登录（用户端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-密码重置（企业）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"password":"12345678",
+"sms_code":"",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-找回密码-企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intelligence/houseLists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence_houselists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智居接口-智居房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/intelligence/houseInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":1640519
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"house_id":1641202
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":1,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"status":2,
+"signing_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bill/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bill_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-用户账单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-支付记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"page":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/booking/companyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking_companyinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-公司详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_sitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_sitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/siteList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/actInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/actInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-提交推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_submit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-推荐记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_invitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/recommend/inviteList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/memcoupon/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端推荐-我的优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_memcoupon_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"limit":3
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号已存在推荐记录，不能重复推荐</t>
+  </si>
+  <si>
+    <t>act_action_lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/coupon/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_coupon_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-领券中心-惠券列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/coupon/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_coupon_get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/action/use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_action_use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-优惠券使用校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_order_manyCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1,
+"name":"刘客户",
+"mobile":"18211076666",
+"card_no":"",
+"remark":"有意租房",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "123456789",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "1.5.0",
+"mobile":"18211076666",
+"password": "12345678",
+"type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_hx_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/action/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/hx/orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-后台核销-提交核销(现金)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"coupon_id":[18],
+"admin_id":15658,
+"refund_type":2,
+"receipt_name":"",
+"receipt_bank_name":"",
+"receipt_card_no":"",
+"remark":"自动化测试（现金核销）"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-可用优惠券列表（房间id:1638947）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"city_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"act_site_id":1,
+"name":"刘客户",
+"mobile":"18211076666",
+"card_no":"",
+"remark":"有意租房",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"limit":10
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"batch_id":23
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动已结束</t>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-领券中心-领取优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061],
+"coupon_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只可在系统后台核销</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"signing_id":6588,
+"bill_fee_id":[65061],
+"coupon_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/manyCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-用户端-提交订单并使用优惠券（多账单生成订单,房间id：1638947）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":58800
+}]
+}],
+"coupons_id":299
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券记录不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":588
+}]
+}],
+"coupons_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在不符合条件的账单</t>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"bill_data":[{
+"bill_id":31666,
+"bill_free_data":[{
+"bill_fee_id":65065,
+"amount":58800
+}]
+}],
+"coupons_id":29
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-后台核销-提交核销(转账)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"coupon_id":[18],
+"admin_id":15658,
+"refund_type":1,
+"receipt_name":"刘昱良",
+"receipt_bank_name":"中行",
+"receipt_card_no":"1234567",
+"remark":"自动化测试（转账核销）"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-支付详情（新加优惠券）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"orders_id":21325
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"house_id":1638947,
+"mobile":"",
+"from_type":0,
+"booking_id":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"house_id":1636879,
+"house_id":1638947,
+"mobile":"",
+"from_type":1,
+"booking_id":"",
+"access_token":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"mobile":"",
+"from_type":0,
+"booking_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.5.0",
+"access_token":"",
+"community_id":11,
+"product_id":1,
+"mobile":"",
+"from_type":1,
+"booking_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"order_type":"time",
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"direction":[3],
+"entire_flat":[1],
+"room_amount":[1],
+"feature_id":[2],
+"decorate_type":[2],
+"tenancy_type ":[1],
+"city_id ": 2,
+"type_id":2,
+"rent_order":"reverse",
+"brand_id":"",
+"community_id":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":21325
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"search_name":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"search_name":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":2,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":7,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":4,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":7,
+"user_type_id":2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业（未上线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-企业
+（未上线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":4,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":5,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"apply_id":86
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-维修申请-详情（这版不测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseDescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-维修类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"page":1,
+"district_id":274,
+"location":"116.419447,40.075503",
+"search_name":"集中式",
+"county_id":249,
+"start_rent":0,
+"end_rent":15000,
+"feature_id":[1],
+"direction":[1],
+"room_amount":[1],
+"tenancy_type ":[0],
+"city_id ": 2,
+"type_id":0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "2.2",
@@ -1476,975 +2640,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/houseListsNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>home_houselistnew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"page":1,
-"order_type":"time",
-"district_id":274,
-"location":"116.419447,40.075503",
-"search_name":"集中式",
-"county_id":249,
-"start_rent":0,
-"end_rent":15000,
-"direction":[3],
-"entire_flat":[2],
-"room_amount":[1],
-"feature_id":[2],
-"decorate_type":[2],
-"tenancy_type ":[1],
-"city_id ": 2,
-"type_id":0,
-"rent_order":"reverse",
-"brand_id":"",
-"community_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2.1",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":1,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-  </si>
-  <si>
-    <t>用户-检验密码（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-检验密码（企业）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"1234567890",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/leaseNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_leasenew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户租赁new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-  </si>
-  <si>
-    <t>用户-快捷登录（用户端）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-快捷登录（用户端）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-密码重置（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-密码重置（企业）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业（快捷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":2,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-找回密码-企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/intelligence/houseLists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intelligence_houselists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智居接口-智居房间列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/intelligence/houseInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"house_id":1640519
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"house_id":1641202
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":1,
-"signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"status":2,
-"signing_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bill/info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_bill_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-用户账单详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_order_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-支付记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"page":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/booking/companyInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking_companyinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中分散首页-公司详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_sitelist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_sitelist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/recommend/siteList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/recommend/actInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/recommend/actInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-活动列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-活动列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"act_site_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-推荐页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-推荐页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/recommend/submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-提交推荐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_submit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-推荐记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_recommend_invitelist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/recommend/inviteList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/memcoupon/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端推荐-我的优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_memcoupon_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"page":1,
-"limit":3
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该手机号已存在推荐记录，不能重复推荐</t>
-  </si>
-  <si>
-    <t>act_action_lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/coupon/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_coupon_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端-领券中心-惠券列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/coupon/get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_coupon_get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/action/use</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_action_use</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端-优惠券使用校验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_order_manyCreate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"act_site_id":1,
-"name":"刘客户",
-"mobile":"18211076666",
-"card_no":"",
-"remark":"有意租房",
-"batch_id":23
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "123456789",
-"type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "1.5.0",
-"mobile":"18211076666",
-"password": "12345678",
-"type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_hx_orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/action/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/act/hx/orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-后台核销-提交核销(现金)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"coupon_id":[18],
-"admin_id":15658,
-"refund_type":2,
-"receipt_name":"",
-"receipt_bank_name":"",
-"receipt_card_no":"",
-"remark":"自动化测试（现金核销）"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端-可用优惠券列表（房间id:1638947）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"signing_id":6588,
-"bill_fee_id":[65061]
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"city_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"act_site_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"act_site_id":1,
-"name":"刘客户",
-"mobile":"18211076666",
-"card_no":"",
-"remark":"有意租房",
-"batch_id":23
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"page":1,
-"limit":10
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"batch_id":23
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动已结束</t>
-  </si>
-  <si>
-    <t>优惠券相关-用户端-领券中心-领取优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"signing_id":6588,
-"bill_fee_id":[65061],
-"coupon_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只可在系统后台核销</t>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"signing_id":6588,
-"bill_fee_id":[65061],
-"coupon_id":29
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/manyCreate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-用户端-提交订单并使用优惠券（多账单生成订单,房间id：1638947）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"bill_data":[{
-"bill_id":31666,
-"bill_free_data":[{
-"bill_fee_id":65065,
-"amount":58800
-}]
-}],
-"coupons_id":299
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券记录不存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"bill_data":[{
-"bill_id":31666,
-"bill_free_data":[{
-"bill_fee_id":65065,
-"amount":588
-}]
-}],
-"coupons_id":29
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在不符合条件的账单</t>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"bill_data":[{
-"bill_id":31666,
-"bill_free_data":[{
-"bill_fee_id":65065,
-"amount":58800
-}]
-}],
-"coupons_id":29
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关-后台核销-提交核销(转账)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"coupon_id":[18],
-"admin_id":15658,
-"refund_type":1,
-"receipt_name":"刘昱良",
-"receipt_bank_name":"中行",
-"receipt_card_no":"1234567",
-"remark":"自动化测试（转账核销）"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_order_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-支付详情（新加优惠券）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"orders_id":21325
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"house_id":1638947,
-"mobile":"",
-"from_type":0,
-"booking_id":"",
-"access_token":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"house_id":1636879,
-"house_id":1638947,
-"mobile":"",
-"from_type":1,
-"booking_id":"",
-"access_token":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"community_id":11,
-"product_id":1,
-"mobile":"",
-"from_type":0,
-"booking_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.5.0",
-"access_token":"",
-"community_id":11,
-"product_id":1,
-"mobile":"",
-"from_type":1,
-"booking_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"type_id":0,
-"location":"116.419447,40.075503",
-"search_name":"分散式社区三",
-"feature_id":[1],
-"direction":[1],
-"room_amount":[5],
-"district_id":4,
-"county_id ":3,
-"start_rent":1000,
-"end_rent":1500,
-"city_id ": 2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">集中分散首页-新版房间列表(接口测试专用-集中式-天通苑)(排序图片优先)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"page":1,
-"order_type":"time",
-"district_id":274,
-"location":"116.419447,40.075503",
-"search_name":"集中式",
-"county_id":249,
-"start_rent":0,
-"end_rent":15000,
-"direction":[3],
-"entire_flat":[1],
-"room_amount":[1],
-"feature_id":[2],
-"decorate_type":[2],
-"tenancy_type ":[1],
-"city_id ": 2,
-"type_id":2,
-"rent_order":"reverse",
-"brand_id":"",
-"community_id":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "2.2",
@@ -2461,7 +2656,6 @@
 "room_amount":[1],
 "feature_id":[1],
 "decorate_type":[2],
-"tenancy_type ":[0],
 "city_id ": 2,
 "type_id":0,
 "rent_order":"order",
@@ -2474,8 +2668,17 @@
     <t>{
 "source": 1,
 "version": "1.5.0",
-"access_token": "",
-"id":21325
+"type_id":0,
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2483,205 +2686,35 @@
     <t>{
 "source": 1,
 "version": "1.5.0",
-"access_token": "",
-"id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单不存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"search_name":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"search_name":""
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
 "type_id":2,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":6,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":7,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":4,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":5,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号已存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":7,
-"user_type_id":2
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业（未上线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-企业
-（未上线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":4,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"mobile":"18211078892",
-"type_id":5,
-"user_type_id":1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-下发短信验证码-修改密码-个人（未上线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.5.0",
-"access_token": "",
-"apply_id":86
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-维修申请-详情（这版不测）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseDescribe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-State</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-Msg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-用户端-维修类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
+"location":"116.419447,40.075503",
+"search_name":"分散式社区三",
+"feature_id":[1],
+"direction":[1],
+"room_amount":[5],
+"district_id":4,
+"county_id ":3,
+"decorate_type":[],
+"start_rent":1000,
+"end_rent":1500,
+"city_id ": 2
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中分散首页-地图搜索接口(增加装修字段)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-维修列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2691,7 +2724,144 @@
 "site_id": 1,
 "timestamp":"",
 "access_token":"",
-"hosue_id":1639458
+"page":1,
+"page_size":3,
+"status":0
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"page_size":3,
+"status":1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"page_size":3,
+"status":2
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"page_size":3,
+"status":3
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"page_size":3,
+"status":4
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"page":1,
+"page_size":3,
+"status":5
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-维修项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"category_id":1,
+"house_id":1639458
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-查看详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"apply_id":1
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3263,7 +3433,7 @@
         <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3292,7 +3462,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3321,7 +3491,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3632,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -3661,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3690,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3764,10 +3934,10 @@
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3776,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3793,10 +3963,10 @@
     </row>
     <row r="3" spans="1:9" ht="87.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3805,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3817,7 +3987,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3990,7 +4160,7 @@
         <v>1001</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -4010,7 +4180,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4248,7 +4418,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4298,7 +4468,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4310,7 +4480,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4405,7 +4575,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -4417,7 +4587,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4434,7 +4604,7 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -4463,7 +4633,7 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4492,7 +4662,7 @@
         <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4504,7 +4674,7 @@
         <v>158</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4521,7 +4691,7 @@
         <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -4533,7 +4703,7 @@
         <v>158</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4550,7 +4720,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -4562,7 +4732,7 @@
         <v>158</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4571,7 +4741,7 @@
         <v>1010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
@@ -4579,7 +4749,7 @@
         <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -4591,7 +4761,7 @@
         <v>158</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4608,7 +4778,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -4637,7 +4807,7 @@
         <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -4649,7 +4819,7 @@
         <v>158</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4666,7 +4836,7 @@
         <v>159</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -4695,7 +4865,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -4707,7 +4877,7 @@
         <v>158</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -4724,7 +4894,7 @@
         <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
@@ -4736,7 +4906,7 @@
         <v>158</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4753,7 +4923,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -4765,7 +4935,7 @@
         <v>158</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4774,7 +4944,7 @@
         <v>1010</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="108">
@@ -4782,7 +4952,7 @@
         <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -4794,7 +4964,7 @@
         <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -4880,7 +5050,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4897,7 +5067,7 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>162</v>
@@ -4909,7 +5079,7 @@
         <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4926,7 +5096,7 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4938,7 +5108,7 @@
         <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4955,7 +5125,7 @@
         <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>162</v>
@@ -4967,7 +5137,7 @@
         <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5046,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="121.5">
@@ -5066,7 +5236,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5086,7 +5256,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -5098,7 +5268,7 @@
         <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5118,7 +5288,7 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5130,7 +5300,7 @@
         <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5150,7 +5320,7 @@
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5162,7 +5332,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5250,7 +5420,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>162</v>
@@ -5262,7 +5432,7 @@
         <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5279,7 +5449,7 @@
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>162</v>
@@ -5308,7 +5478,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5320,7 +5490,7 @@
         <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5337,7 +5507,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5349,7 +5519,7 @@
         <v>163</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5531,7 +5701,7 @@
         <v>173</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5560,7 +5730,7 @@
         <v>173</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5569,7 +5739,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5631,10 +5801,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5">
       <c r="A2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5643,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -5660,10 +5830,10 @@
     </row>
     <row r="3" spans="1:9" ht="67.5">
       <c r="A3" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5672,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -5684,7 +5854,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5761,7 +5931,7 @@
         <v>177</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5790,7 +5960,7 @@
         <v>177</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5875,7 +6045,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5904,7 +6074,7 @@
         <v>218</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5913,7 +6083,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5974,10 +6144,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5986,10 +6156,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6003,10 +6173,10 @@
     </row>
     <row r="3" spans="1:9" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6015,10 +6185,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6027,7 +6197,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6089,10 +6259,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6101,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6175,10 +6345,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6187,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6371,7 +6541,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6400,7 +6570,7 @@
         <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6429,7 +6599,7 @@
         <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6458,7 +6628,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7276,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7341,7 +7511,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7408,6 +7578,35 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="260.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7423,7 +7622,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7485,7 +7684,7 @@
         <v>105</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7502,7 +7701,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7514,7 +7713,7 @@
         <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7531,7 +7730,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7543,7 +7742,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7560,7 +7759,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7572,7 +7771,7 @@
         <v>105</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7643,10 +7842,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7655,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7675,7 +7874,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7687,7 +7886,7 @@
         <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7704,7 +7903,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7716,7 +7915,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8353,7 +8552,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8382,7 +8581,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9311,7 +9510,7 @@
         <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9340,7 +9539,7 @@
         <v>191</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9410,10 +9609,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9422,10 +9621,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9987,22 +10186,22 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10011,27 +10210,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10054,7 +10253,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10101,22 +10300,22 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10125,27 +10324,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10213,15 +10412,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="198" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10230,10 +10429,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10242,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J2" s="24">
         <v>1</v>
@@ -10250,10 +10449,10 @@
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="198" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -10262,10 +10461,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10274,7 +10473,7 @@
         <v>1101</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J3" s="24">
         <v>0</v>
@@ -10338,22 +10537,22 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10362,27 +10561,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10489,8 +10688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10537,23 +10736,23 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -10561,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -10623,10 +10822,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -10635,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10708,10 +10907,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10720,10 +10919,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10732,7 +10931,7 @@
         <v>2106</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -10794,10 +10993,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10806,10 +11005,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10879,10 +11078,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10891,10 +11090,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10908,10 +11107,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -10920,10 +11119,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10932,7 +11131,7 @@
         <v>2112</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -10994,10 +11193,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11006,10 +11205,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11023,10 +11222,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11035,10 +11234,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11047,15 +11246,15 @@
         <v>2111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -11064,10 +11263,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11076,7 +11275,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -11138,10 +11337,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11150,10 +11349,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11167,10 +11366,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11179,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11203,10 +11402,10 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11220,51 +11419,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="25" t="s">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="121.5">
+    </row>
+    <row r="2" spans="1:9" ht="161.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11273,12 +11472,322 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5">
+      <c r="A2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135">
+      <c r="A2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11359,6 +11868,87 @@
       </c>
       <c r="I2" s="8" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5">
+      <c r="A2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="57" activeTab="59"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="66" activeTab="69"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -77,13 +77,16 @@
     <sheet name="user_repair_category" sheetId="69" r:id="rId68"/>
     <sheet name="user_repair_good" sheetId="71" r:id="rId69"/>
     <sheet name="user_repair_detail1" sheetId="72" r:id="rId70"/>
+    <sheet name="user_repair_cancel" sheetId="73" r:id="rId71"/>
+    <sheet name="user_repair_houselist" sheetId="74" r:id="rId72"/>
+    <sheet name="user_repair_add" sheetId="75" r:id="rId73"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="439">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,10 +405,6 @@
   </si>
   <si>
     <t>user_repair_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/details</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2843,15 +2842,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>维修管理-用户端-查看详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/repair/detail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>repair_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修管理-用户端-查看详情</t>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"apply_id":229
+}
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2864,6 +2875,162 @@
 "apply_id":1
 }
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请不存在</t>
+  </si>
+  <si>
+    <t>/repair/cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-取消维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"apply_id":282
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/houseList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_houselist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修管理-用户端-添加维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458,
+"channel":1,
+"goods_id":1,
+"img_id":"",
+"desc":"自动化",
+"priority_level":1,
+"goods_name":"空气突然的安静"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458,
+"channel":2,
+"goods_id":1,
+"img_id":"",
+"desc":"自动化",
+"priority_level":1,
+"goods_name":"空气突然的安静"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458,
+"channel":3,
+"goods_id":1,
+"img_id":"",
+"desc":"自动化",
+"priority_level":1,
+"goods_name":"空气突然的安静"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458,
+"channel":4,
+"goods_id":1,
+"img_id":"",
+"desc":"自动化",
+"priority_level":1,
+"goods_name":"空气突然的安静"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"house_id":1639458,
+"channel":5,
+"goods_id":1,
+"img_id":"",
+"desc":"自动化",
+"priority_level":2,
+"goods_name":"空气突然的安静"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/details</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3430,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3462,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3491,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3520,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3549,7 +3716,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -3802,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -3831,10 +3998,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3860,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -3934,10 +4101,10 @@
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -3946,10 +4113,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3963,10 +4130,10 @@
     </row>
     <row r="3" spans="1:9" ht="87.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -3975,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3987,7 +4154,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4327,7 @@
         <v>1001</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -4180,7 +4347,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4418,7 +4585,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4468,7 +4635,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4477,10 +4644,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>438</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4572,10 +4739,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -4584,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4601,10 +4768,10 @@
     </row>
     <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -4613,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4630,10 +4797,10 @@
     </row>
     <row r="4" spans="1:9" ht="108">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -4642,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4659,10 +4826,10 @@
     </row>
     <row r="5" spans="1:9" ht="108">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4671,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4688,10 +4855,10 @@
     </row>
     <row r="6" spans="1:9" ht="108">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -4700,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4717,10 +4884,10 @@
     </row>
     <row r="7" spans="1:9" ht="108">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -4729,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4741,15 +4908,15 @@
         <v>1010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -4758,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4775,10 +4942,10 @@
     </row>
     <row r="9" spans="1:9" ht="108">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -4787,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4804,10 +4971,10 @@
     </row>
     <row r="10" spans="1:9" ht="108">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -4816,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4833,10 +5000,10 @@
     </row>
     <row r="11" spans="1:9" ht="108">
       <c r="A11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -4845,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4862,10 +5029,10 @@
     </row>
     <row r="12" spans="1:9" ht="108">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -4874,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -4891,10 +5058,10 @@
     </row>
     <row r="13" spans="1:9" ht="108">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
@@ -4903,10 +5070,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4920,10 +5087,10 @@
     </row>
     <row r="14" spans="1:9" ht="108">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -4932,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4944,15 +5111,15 @@
         <v>1010</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="108">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -4961,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -5035,10 +5202,10 @@
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5047,10 +5214,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5064,22 +5231,22 @@
     </row>
     <row r="3" spans="1:9" ht="125.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5093,10 +5260,10 @@
     </row>
     <row r="4" spans="1:9" ht="123" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5105,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5122,22 +5289,22 @@
     </row>
     <row r="5" spans="1:9" ht="125.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5170,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -5216,15 +5383,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -5233,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5253,10 +5420,10 @@
     </row>
     <row r="3" spans="1:10" ht="154.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -5265,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5285,10 +5452,10 @@
     </row>
     <row r="4" spans="1:10" ht="121.5">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5297,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5317,10 +5484,10 @@
     </row>
     <row r="5" spans="1:10" ht="154.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5329,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5417,22 +5584,22 @@
     </row>
     <row r="2" spans="1:9" ht="125.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5446,22 +5613,22 @@
     </row>
     <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5470,15 +5637,15 @@
         <v>1006</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="125.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -5487,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -5504,10 +5671,10 @@
     </row>
     <row r="5" spans="1:9" ht="125.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -5516,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5528,7 +5695,7 @@
         <v>1006</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5590,22 +5757,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5">
       <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5614,7 +5781,7 @@
         <v>3508</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5686,10 +5853,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5698,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5710,15 +5877,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="107.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5727,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5739,7 +5906,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5801,10 +5968,10 @@
     </row>
     <row r="2" spans="1:9" ht="67.5">
       <c r="A2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5813,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -5825,15 +5992,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5">
       <c r="A3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5842,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -5854,7 +6021,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5916,10 +6083,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5">
       <c r="A2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -5928,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5940,15 +6107,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5">
       <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -5957,10 +6124,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5969,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +6197,10 @@
     </row>
     <row r="2" spans="1:9" ht="81">
       <c r="A2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6042,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6054,15 +6221,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="81">
       <c r="A3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6071,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6083,7 +6250,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6144,10 +6311,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6156,10 +6323,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6168,15 +6335,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6185,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6197,7 +6364,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6259,10 +6426,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6271,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6283,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6345,10 +6512,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6357,10 +6524,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6369,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6430,10 +6597,10 @@
     </row>
     <row r="2" spans="1:9" ht="217.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -6442,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6454,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6526,10 +6693,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -6538,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6555,10 +6722,10 @@
     </row>
     <row r="3" spans="1:9" ht="154.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -6567,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6584,10 +6751,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -6596,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6613,10 +6780,10 @@
     </row>
     <row r="5" spans="1:9" ht="154.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -6625,10 +6792,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -6709,10 +6876,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6721,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6817,10 +6984,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6829,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6846,10 +7013,10 @@
     </row>
     <row r="3" spans="1:9" ht="135">
       <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -6858,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6870,15 +7037,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135">
       <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -6887,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -6899,15 +7066,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135">
       <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -6916,10 +7083,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -6928,15 +7095,15 @@
         <v>1000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135">
       <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -6945,10 +7112,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -6957,15 +7124,15 @@
         <v>1000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -6974,10 +7141,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -6986,7 +7153,7 @@
         <v>1000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7048,10 +7215,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7060,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7156,10 +7323,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7168,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7185,10 +7352,10 @@
     </row>
     <row r="3" spans="1:9" ht="81">
       <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7197,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7209,7 +7376,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7281,10 +7448,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7293,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7389,10 +7556,10 @@
     </row>
     <row r="2" spans="1:9" ht="163.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7401,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7496,10 +7663,10 @@
     </row>
     <row r="2" spans="1:9" ht="234.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7508,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7525,10 +7692,10 @@
     </row>
     <row r="3" spans="1:9" ht="229.5">
       <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7537,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7554,10 +7721,10 @@
     </row>
     <row r="4" spans="1:9" ht="229.5">
       <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7566,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7583,10 +7750,10 @@
     </row>
     <row r="5" spans="1:9" ht="260.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7595,10 +7762,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7669,10 +7836,10 @@
     </row>
     <row r="2" spans="1:9" ht="234" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7681,10 +7848,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7698,10 +7865,10 @@
     </row>
     <row r="3" spans="1:9" ht="390.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7710,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7727,10 +7894,10 @@
     </row>
     <row r="4" spans="1:9" ht="390.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7739,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7756,10 +7923,10 @@
     </row>
     <row r="5" spans="1:9" ht="390.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7768,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7842,10 +8009,10 @@
     </row>
     <row r="2" spans="1:9" ht="390.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7854,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7871,10 +8038,10 @@
     </row>
     <row r="3" spans="1:9" ht="390.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -7883,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -7900,10 +8067,10 @@
     </row>
     <row r="4" spans="1:9" ht="390.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -7912,10 +8079,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -7986,10 +8153,10 @@
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -7998,10 +8165,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8179,10 +8346,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8191,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8286,10 +8453,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8298,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8393,10 +8560,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8405,10 +8572,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8422,10 +8589,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8434,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8451,10 +8618,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5">
       <c r="A4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -8463,10 +8630,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8537,10 +8704,10 @@
     </row>
     <row r="2" spans="1:9" ht="157.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8549,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8566,10 +8733,10 @@
     </row>
     <row r="3" spans="1:9" ht="157.5" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8578,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8663,10 +8830,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8675,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8692,10 +8859,10 @@
     </row>
     <row r="3" spans="1:9" ht="108">
       <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -8704,10 +8871,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8721,10 +8888,10 @@
     </row>
     <row r="4" spans="1:9" ht="108">
       <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -8733,10 +8900,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8750,10 +8917,10 @@
     </row>
     <row r="5" spans="1:9" ht="108">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -8762,10 +8929,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -8779,10 +8946,10 @@
     </row>
     <row r="6" spans="1:9" ht="108">
       <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -8791,10 +8958,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -8865,10 +9032,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8877,10 +9044,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8975,10 +9142,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8987,10 +9154,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9004,10 +9171,10 @@
     </row>
     <row r="3" spans="1:9" ht="148.5">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -9016,10 +9183,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9111,10 +9278,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9123,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9210,10 +9377,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9222,10 +9389,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9239,10 +9406,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -9251,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9324,10 +9491,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9336,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9495,10 +9662,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9507,10 +9674,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9524,10 +9691,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -9536,10 +9703,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9609,10 +9776,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9621,10 +9788,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9694,10 +9861,10 @@
     </row>
     <row r="2" spans="1:9" ht="168" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9706,10 +9873,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9723,10 +9890,10 @@
     </row>
     <row r="3" spans="1:9" ht="176.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -9735,10 +9902,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9752,10 +9919,10 @@
     </row>
     <row r="4" spans="1:9" ht="94.5">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -9764,10 +9931,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -9838,10 +10005,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9850,10 +10017,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9862,15 +10029,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -9879,10 +10046,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9891,7 +10058,7 @@
         <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9963,10 +10130,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -9975,10 +10142,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9987,15 +10154,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -10004,10 +10171,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10089,10 +10256,10 @@
     </row>
     <row r="2" spans="1:9" ht="142.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -10101,19 +10268,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10186,51 +10353,51 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10300,51 +10467,51 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10412,15 +10579,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="198" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10429,10 +10596,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10441,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J2" s="24">
         <v>1</v>
@@ -10449,10 +10616,10 @@
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="198" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -10461,10 +10628,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10473,7 +10640,7 @@
         <v>1101</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J3" s="24">
         <v>0</v>
@@ -10537,51 +10704,51 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10688,7 +10855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -10736,31 +10903,31 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -10822,10 +10989,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -10834,10 +11001,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10846,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -10907,10 +11074,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -10919,10 +11086,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10931,7 +11098,7 @@
         <v>2106</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -10993,10 +11160,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11005,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11017,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11078,10 +11245,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11090,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11102,15 +11269,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11119,10 +11286,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11131,7 +11298,7 @@
         <v>2112</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -11193,10 +11360,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11205,10 +11372,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11217,15 +11384,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11234,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11246,15 +11413,15 @@
         <v>2111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -11263,10 +11430,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11275,7 +11442,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -11337,10 +11504,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11349,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11361,15 +11528,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11378,10 +11545,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11390,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11404,8 +11571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11425,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>387</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11437,34 +11604,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="161.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -11472,27 +11639,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="161.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11501,27 +11668,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="161.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11530,27 +11697,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="161.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -11559,27 +11726,27 @@
         <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="161.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -11588,27 +11755,27 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="161.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -11617,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11632,7 +11799,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11646,39 +11813,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11687,11 +11854,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
@@ -11699,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11714,7 +11881,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11734,10 +11901,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>387</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11746,21 +11913,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135">
       <c r="A2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11769,10 +11936,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11781,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11878,10 +12045,10 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11901,10 +12068,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>387</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11913,21 +12080,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11936,10 +12103,120 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5">
+      <c r="A3" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5">
+      <c r="A2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11948,7 +12225,286 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108">
+      <c r="A2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="226.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="226.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="226.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="226.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="226.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="66" activeTab="69"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="66" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="441">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1926,10 +1926,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/act/memcoupon/lists</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠券相关-用户端推荐-我的优惠券</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2881,27 +2877,11 @@
     <t>维修申请不存在</t>
   </si>
   <si>
-    <t>/repair/cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>repair_cancel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>维修管理-用户端-取消维修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"source": 4,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"apply_id":282
-}
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3031,6 +3011,48 @@
   </si>
   <si>
     <t>/repair/details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/memcoupon/lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"type_id":6,
+"user_type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2.1",
+"access_token": "",
+"mobile":"18211078892",
+"sms_code":"",
+"type_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"apply_id":347
+}
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3600,7 +3622,7 @@
         <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3629,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3658,7 +3680,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4635,7 +4657,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4644,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4754,7 +4776,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4829,7 +4851,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4841,7 +4863,7 @@
         <v>157</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4858,7 +4880,7 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -4870,7 +4892,7 @@
         <v>157</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4899,7 +4921,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4908,7 +4930,7 @@
         <v>1010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
@@ -4928,7 +4950,7 @@
         <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -5032,7 +5054,7 @@
         <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -5044,7 +5066,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -5061,7 +5083,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
@@ -5073,7 +5095,7 @@
         <v>157</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -5102,7 +5124,7 @@
         <v>157</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -5111,7 +5133,7 @@
         <v>1010</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="108">
@@ -5337,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5383,7 +5405,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="121.5">
@@ -5403,7 +5425,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>438</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5435,7 +5457,7 @@
         <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5868,7 +5890,7 @@
         <v>172</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5897,7 +5919,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6326,7 +6348,7 @@
         <v>273</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6355,7 +6377,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6364,7 +6386,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6512,10 +6534,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6524,10 +6546,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7678,7 +7700,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7753,7 +7775,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7765,7 +7787,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7851,7 +7873,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7938,7 +7960,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -8012,7 +8034,7 @@
         <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8024,7 +8046,7 @@
         <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8082,7 +8104,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8719,7 +8741,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8748,7 +8770,7 @@
         <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9677,7 +9699,7 @@
         <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9706,7 +9728,7 @@
         <v>190</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10306,7 +10328,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10368,7 +10390,7 @@
         <v>290</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10397,7 +10419,7 @@
         <v>290</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10482,7 +10504,7 @@
         <v>291</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10579,7 +10601,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="198" customHeight="1">
@@ -10599,7 +10621,7 @@
         <v>300</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10631,7 +10653,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10640,7 +10662,7 @@
         <v>1101</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" s="24">
         <v>0</v>
@@ -10856,7 +10878,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10903,10 +10925,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>288</v>
@@ -10915,10 +10937,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>307</v>
+        <v>436</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10989,10 +11011,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11001,10 +11023,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11074,10 +11096,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11086,10 +11108,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11098,7 +11120,7 @@
         <v>2106</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -11160,10 +11182,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11172,10 +11194,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11245,10 +11267,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11257,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11274,10 +11296,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11286,10 +11308,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11298,7 +11320,7 @@
         <v>2112</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -11360,10 +11382,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11372,10 +11394,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11389,10 +11411,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11401,10 +11423,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11413,15 +11435,15 @@
         <v>2111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -11430,10 +11452,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11442,7 +11464,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -11504,10 +11526,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11516,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11533,10 +11555,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11545,10 +11567,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11571,8 +11593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11592,10 +11614,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11604,21 +11626,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="161.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>288</v>
@@ -11627,10 +11649,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11644,10 +11666,10 @@
     </row>
     <row r="3" spans="1:9" ht="161.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>288</v>
@@ -11656,10 +11678,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11673,10 +11695,10 @@
     </row>
     <row r="4" spans="1:9" ht="161.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>288</v>
@@ -11685,10 +11707,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11702,10 +11724,10 @@
     </row>
     <row r="5" spans="1:9" ht="161.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>288</v>
@@ -11714,10 +11736,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -11731,10 +11753,10 @@
     </row>
     <row r="6" spans="1:9" ht="161.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>288</v>
@@ -11743,10 +11765,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -11760,10 +11782,10 @@
     </row>
     <row r="7" spans="1:9" ht="161.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>288</v>
@@ -11772,10 +11794,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -11813,39 +11835,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>390</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11854,10 +11876,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11901,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11913,21 +11935,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135">
       <c r="A2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11936,10 +11958,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12047,7 +12069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -12068,10 +12090,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -12080,21 +12102,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12103,10 +12125,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12120,10 +12142,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5">
       <c r="A3" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12132,10 +12154,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -12144,7 +12166,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -12158,7 +12180,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12201,10 +12223,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12213,10 +12235,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12283,10 +12305,10 @@
     </row>
     <row r="2" spans="1:9" ht="108">
       <c r="A2" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12295,10 +12317,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12320,8 +12342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12364,10 +12386,10 @@
     </row>
     <row r="2" spans="1:9" ht="226.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12376,10 +12398,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12393,10 +12415,10 @@
     </row>
     <row r="3" spans="1:9" ht="226.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12405,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -12422,10 +12444,10 @@
     </row>
     <row r="4" spans="1:9" ht="226.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -12434,10 +12456,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -12451,10 +12473,10 @@
     </row>
     <row r="5" spans="1:9" ht="226.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -12463,10 +12485,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -12480,10 +12502,10 @@
     </row>
     <row r="6" spans="1:9" ht="226.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -12492,10 +12514,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -12510,6 +12532,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/case/v1.5.xlsx
+++ b/testData/case/v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="66" activeTab="66"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -35,58 +35,59 @@
     <sheet name="user_bill_info" sheetId="54" r:id="rId26"/>
     <sheet name="user_order_lists" sheetId="55" r:id="rId27"/>
     <sheet name="user_order_detail" sheetId="68" r:id="rId28"/>
-    <sheet name="user_account_docertificates" sheetId="39" r:id="rId29"/>
-    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId30"/>
-    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId31"/>
-    <sheet name="wallet_bank_check" sheetId="17" r:id="rId32"/>
-    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId33"/>
-    <sheet name="home_trading_aera" sheetId="19" r:id="rId34"/>
-    <sheet name="home_community_list" sheetId="20" r:id="rId35"/>
-    <sheet name="home_map" sheetId="21" r:id="rId36"/>
-    <sheet name="home_houselist" sheetId="22" r:id="rId37"/>
-    <sheet name="home_houselistnew" sheetId="49" r:id="rId38"/>
-    <sheet name="home_communityinfo" sheetId="23" r:id="rId39"/>
-    <sheet name="home_searchinfo" sheetId="24" r:id="rId40"/>
-    <sheet name="home_searchhouse" sheetId="46" r:id="rId41"/>
-    <sheet name="booking_disreserve" sheetId="25" r:id="rId42"/>
-    <sheet name="booking_house" sheetId="26" r:id="rId43"/>
-    <sheet name="booking_disbooking" sheetId="27" r:id="rId44"/>
-    <sheet name="booking_submit_01" sheetId="28" r:id="rId45"/>
-    <sheet name="booking_cancel_01" sheetId="29" r:id="rId46"/>
-    <sheet name="booking_submit_02" sheetId="30" r:id="rId47"/>
-    <sheet name="booking_cancel_02" sheetId="31" r:id="rId48"/>
-    <sheet name="booking_info" sheetId="43" r:id="rId49"/>
-    <sheet name="booking_product" sheetId="44" r:id="rId50"/>
-    <sheet name="booking_companyinfo" sheetId="56" r:id="rId51"/>
-    <sheet name="signing_info" sheetId="32" r:id="rId52"/>
-    <sheet name="signing_signinginfo" sheetId="33" r:id="rId53"/>
-    <sheet name="signing_subbill" sheetId="34" r:id="rId54"/>
-    <sheet name="account_todo" sheetId="42" r:id="rId55"/>
-    <sheet name="act_recommend_sitelist" sheetId="57" r:id="rId56"/>
-    <sheet name="act_recommend_info" sheetId="58" r:id="rId57"/>
-    <sheet name="act_recommend_submit" sheetId="59" r:id="rId58"/>
-    <sheet name="act_recommend_invitelist" sheetId="60" r:id="rId59"/>
-    <sheet name="act_memcoupon_list" sheetId="61" r:id="rId60"/>
-    <sheet name="act_coupon_list" sheetId="63" r:id="rId61"/>
-    <sheet name="act_coupon_get" sheetId="64" r:id="rId62"/>
-    <sheet name="act_action_list" sheetId="62" r:id="rId63"/>
-    <sheet name="act_action_use" sheetId="65" r:id="rId64"/>
-    <sheet name="act_manycreate" sheetId="66" r:id="rId65"/>
-    <sheet name="act_hx_orders" sheetId="67" r:id="rId66"/>
-    <sheet name="user_repair_list" sheetId="70" r:id="rId67"/>
-    <sheet name="user_repair_category" sheetId="69" r:id="rId68"/>
-    <sheet name="user_repair_good" sheetId="71" r:id="rId69"/>
-    <sheet name="user_repair_detail1" sheetId="72" r:id="rId70"/>
-    <sheet name="user_repair_cancel" sheetId="73" r:id="rId71"/>
-    <sheet name="user_repair_houselist" sheetId="74" r:id="rId72"/>
-    <sheet name="user_repair_add" sheetId="75" r:id="rId73"/>
+    <sheet name="user_order_confirm" sheetId="76" r:id="rId29"/>
+    <sheet name="user_account_docertificates" sheetId="39" r:id="rId30"/>
+    <sheet name="wallet_bank_lists" sheetId="15" r:id="rId31"/>
+    <sheet name="wallet_bank_bind" sheetId="16" r:id="rId32"/>
+    <sheet name="wallet_bank_check" sheetId="17" r:id="rId33"/>
+    <sheet name="wallet_bank_unbind" sheetId="18" r:id="rId34"/>
+    <sheet name="home_trading_aera" sheetId="19" r:id="rId35"/>
+    <sheet name="home_community_list" sheetId="20" r:id="rId36"/>
+    <sheet name="home_map" sheetId="21" r:id="rId37"/>
+    <sheet name="home_houselist" sheetId="22" r:id="rId38"/>
+    <sheet name="home_houselistnew" sheetId="49" r:id="rId39"/>
+    <sheet name="home_communityinfo" sheetId="23" r:id="rId40"/>
+    <sheet name="home_searchinfo" sheetId="24" r:id="rId41"/>
+    <sheet name="home_searchhouse" sheetId="46" r:id="rId42"/>
+    <sheet name="booking_disreserve" sheetId="25" r:id="rId43"/>
+    <sheet name="booking_house" sheetId="26" r:id="rId44"/>
+    <sheet name="booking_disbooking" sheetId="27" r:id="rId45"/>
+    <sheet name="booking_submit_01" sheetId="28" r:id="rId46"/>
+    <sheet name="booking_cancel_01" sheetId="29" r:id="rId47"/>
+    <sheet name="booking_submit_02" sheetId="30" r:id="rId48"/>
+    <sheet name="booking_cancel_02" sheetId="31" r:id="rId49"/>
+    <sheet name="booking_info" sheetId="43" r:id="rId50"/>
+    <sheet name="booking_product" sheetId="44" r:id="rId51"/>
+    <sheet name="booking_companyinfo" sheetId="56" r:id="rId52"/>
+    <sheet name="signing_info" sheetId="32" r:id="rId53"/>
+    <sheet name="signing_signinginfo" sheetId="33" r:id="rId54"/>
+    <sheet name="signing_subbill" sheetId="34" r:id="rId55"/>
+    <sheet name="account_todo" sheetId="42" r:id="rId56"/>
+    <sheet name="act_recommend_sitelist" sheetId="57" r:id="rId57"/>
+    <sheet name="act_recommend_info" sheetId="58" r:id="rId58"/>
+    <sheet name="act_recommend_submit" sheetId="59" r:id="rId59"/>
+    <sheet name="act_recommend_invitelist" sheetId="60" r:id="rId60"/>
+    <sheet name="act_memcoupon_list" sheetId="61" r:id="rId61"/>
+    <sheet name="act_coupon_list" sheetId="63" r:id="rId62"/>
+    <sheet name="act_coupon_get" sheetId="64" r:id="rId63"/>
+    <sheet name="act_action_list" sheetId="62" r:id="rId64"/>
+    <sheet name="act_action_use" sheetId="65" r:id="rId65"/>
+    <sheet name="act_manycreate" sheetId="66" r:id="rId66"/>
+    <sheet name="act_hx_orders" sheetId="67" r:id="rId67"/>
+    <sheet name="user_repair_list" sheetId="70" r:id="rId68"/>
+    <sheet name="user_repair_category" sheetId="69" r:id="rId69"/>
+    <sheet name="user_repair_good" sheetId="71" r:id="rId70"/>
+    <sheet name="user_repair_detail1" sheetId="72" r:id="rId71"/>
+    <sheet name="user_repair_cancel" sheetId="73" r:id="rId72"/>
+    <sheet name="user_repair_houselist" sheetId="74" r:id="rId73"/>
+    <sheet name="user_repair_add" sheetId="75" r:id="rId74"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="447">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1969,10 +1970,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/act/coupon/get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>act_coupon_get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2134,17 +2131,6 @@
 "access_token":"",
 "page":1,
 "limit":10
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 2,
-"version": "2.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":"",
-"batch_id":23
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3054,6 +3040,49 @@
 }
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/act/coupon/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 2,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"access_token":"",
+"batch_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_order_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-订单支付加载信息接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.5.0",
+"access_token": "",
+"orders_no":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态异常</t>
   </si>
 </sst>
 </file>
@@ -3622,7 +3651,7 @@
         <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -3651,7 +3680,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -3680,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -4657,7 +4686,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -4666,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4776,7 +4805,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -4851,7 +4880,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4863,7 +4892,7 @@
         <v>157</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4880,7 +4909,7 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -4892,7 +4921,7 @@
         <v>157</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4921,7 +4950,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4930,7 +4959,7 @@
         <v>1010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
@@ -4950,7 +4979,7 @@
         <v>157</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -5054,7 +5083,7 @@
         <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -5066,7 +5095,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -5083,7 +5112,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
@@ -5095,7 +5124,7 @@
         <v>157</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -5124,7 +5153,7 @@
         <v>157</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -5133,7 +5162,7 @@
         <v>1010</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="108">
@@ -5405,7 +5434,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="121.5">
@@ -5425,7 +5454,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5457,7 +5486,7 @@
         <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -5890,7 +5919,7 @@
         <v>172</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -5919,7 +5948,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6348,7 +6377,7 @@
         <v>273</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6377,7 +6406,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -6386,7 +6415,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +6516,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6534,10 +6563,10 @@
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -6546,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -6569,10 +6598,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6617,45 +6646,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="217.5" customHeight="1">
+    <row r="2" spans="1:9" ht="105" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>441</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>182</v>
+        <v>445</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6848,6 +6866,102 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="217.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6954,7 +7068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7185,7 +7299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7293,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7418,7 +7532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7526,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7633,7 +7747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7700,7 +7814,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7775,7 +7889,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -7787,7 +7901,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7806,7 +7920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7873,7 +7987,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7960,7 +8074,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -7979,7 +8093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8034,7 +8148,7 @@
         <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -8046,7 +8160,7 @@
         <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8104,7 +8218,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -8120,113 +8234,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="26.625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8321,6 +8328,113 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="26.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="103.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -8423,7 +8537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8530,7 +8644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8674,7 +8788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8741,7 +8855,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8770,7 +8884,7 @@
         <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8800,7 +8914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -9002,7 +9116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -9112,7 +9226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -9248,7 +9362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -9347,7 +9461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -9458,92 +9572,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9634,6 +9662,92 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9699,7 +9813,7 @@
         <v>190</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -9728,7 +9842,7 @@
         <v>190</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9746,7 +9860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9831,7 +9945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -9972,131 +10086,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="176.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="168" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10152,10 +10141,10 @@
     </row>
     <row r="2" spans="1:9" ht="176.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -10164,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10181,10 +10170,10 @@
     </row>
     <row r="3" spans="1:9" ht="168" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -10193,19 +10182,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>1101</v>
+        <v>5001</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10222,11 +10211,136 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="23.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -10323,7 +10437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -10390,7 +10504,7 @@
         <v>290</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10419,7 +10533,7 @@
         <v>290</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10437,7 +10551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -10504,7 +10618,7 @@
         <v>291</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10551,7 +10665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -10621,7 +10735,7 @@
         <v>300</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -10653,7 +10767,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -10666,120 +10780,6 @@
       </c>
       <c r="J3" s="24">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -10875,6 +10875,120 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="25.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="8.75" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10937,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>309</v>
@@ -10959,12 +11073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11026,7 +11140,7 @@
         <v>313</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11044,12 +11158,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11096,10 +11210,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11108,10 +11222,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>316</v>
+        <v>439</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11120,7 +11234,7 @@
         <v>2106</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +11244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11185,7 +11299,7 @@
         <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11194,10 +11308,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11215,7 +11329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -11267,10 +11381,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11279,10 +11393,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11296,10 +11410,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="141.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11308,10 +11422,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11320,7 +11434,7 @@
         <v>2112</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -11330,7 +11444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -11382,10 +11496,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11394,10 +11508,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11411,10 +11525,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11423,10 +11537,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11435,15 +11549,15 @@
         <v>2111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="213.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -11452,10 +11566,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11464,7 +11578,7 @@
         <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -11474,7 +11588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -11526,10 +11640,10 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -11538,10 +11652,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11555,10 +11669,10 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="206.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
@@ -11567,10 +11681,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11589,12 +11703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11614,10 +11728,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -11626,21 +11740,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="161.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>288</v>
@@ -11649,10 +11763,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -11666,10 +11780,10 @@
     </row>
     <row r="3" spans="1:9" ht="161.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>288</v>
@@ -11678,10 +11792,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -11695,10 +11809,10 @@
     </row>
     <row r="4" spans="1:9" ht="161.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>288</v>
@@ -11707,10 +11821,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -11724,10 +11838,10 @@
     </row>
     <row r="5" spans="1:9" ht="161.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>288</v>
@@ -11736,10 +11850,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -11753,10 +11867,10 @@
     </row>
     <row r="6" spans="1:9" ht="161.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>288</v>
@@ -11765,10 +11879,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -11782,10 +11896,10 @@
     </row>
     <row r="7" spans="1:9" ht="161.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>288</v>
@@ -11794,10 +11908,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -11816,7 +11930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11835,39 +11949,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -11876,92 +11990,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="135">
-      <c r="A2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12067,6 +12099,88 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135">
+      <c r="A2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12090,10 +12204,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -12102,21 +12216,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12125,10 +12239,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12142,10 +12256,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5">
       <c r="A3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12154,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -12166,7 +12280,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -12175,7 +12289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -12223,10 +12337,10 @@
     </row>
     <row r="2" spans="1:9" ht="121.5">
       <c r="A2" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12235,10 +12349,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12257,7 +12371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -12305,10 +12419,10 @@
     </row>
     <row r="2" spans="1:9" ht="108">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12317,10 +12431,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12338,7 +12452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -12386,10 +12500,10 @@
     </row>
     <row r="2" spans="1:9" ht="226.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -12398,10 +12512,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -12415,10 +12529,10 @@
     </row>
     <row r="3" spans="1:9" ht="226.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12427,10 +12541,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -12444,10 +12558,10 @@
     </row>
     <row r="4" spans="1:9" ht="226.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -12456,10 +12570,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -12473,10 +12587,10 @@
     </row>
     <row r="5" spans="1:9" ht="226.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -12485,10 +12599,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -12502,10 +12616,10 @@
     </row>
     <row r="6" spans="1:9" ht="226.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -12514,10 +12628,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
